--- a/GameTools/Documents/AmiiboTools/加解密计算.xlsx
+++ b/GameTools/Documents/AmiiboTools/加解密计算.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaolei\Documents\Visual Studio 2015\Projects\GameTools\GameTools\Documents\AmiiboTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anter\Documents\Visual Studio 2015\Projects\GameTools\GameTools\Documents\AmiiboTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="解密" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="异或计算" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$I$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">加密!$A$2:$I$574</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">解密!$A$1:$I$541</definedName>
   </definedNames>
@@ -32,197 +35,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="1027">
   <si>
     <t>十进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>十六进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>十进制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MD5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SHA1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRC32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key_retail.bin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>45FD53569F5765EEF9C337BD5172F937</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BBDBB49A917D14F7A997D327BA40D40C39E606CE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>C6408C16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key_retail - A.bin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>unfixed-info</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2551AFC7C8813008819836E9B619F7ED</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0D1C771D8C836CD010CB06434ACCBA2A5532F7F9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9AA77504</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key_retail - B.bin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>locked-secret</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0AD86557C7BA9E75C79A7B43BB466333</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AD676AC04C6E7861924093654BD67FF4807EBC53</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7097C667</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>卡内结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加密后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加密前</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>算法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>计算结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计算结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00</t>
   </si>
   <si>
     <t>UID0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x000</t>
@@ -235,11 +238,11 @@
   </si>
   <si>
     <t>NXP = 04</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UID1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x001</t>
@@ -264,7 +267,7 @@
   </si>
   <si>
     <t>BCC0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x003</t>
@@ -277,14 +280,14 @@
   </si>
   <si>
     <t>BCC0 = 0x88 ^ UID0 ^ UID1 ^ UID2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x01</t>
   </si>
   <si>
     <t>UID3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x004</t>
@@ -297,7 +300,7 @@
   </si>
   <si>
     <t>UID4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x005</t>
@@ -310,7 +313,7 @@
   </si>
   <si>
     <t>UID5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x006</t>
@@ -323,7 +326,7 @@
   </si>
   <si>
     <t>UID6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x007</t>
@@ -339,7 +342,7 @@
   </si>
   <si>
     <t>BCC1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x008</t>
@@ -349,15 +352,15 @@
   </si>
   <si>
     <t>0x000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BCC1 = UID3 ^ UID4 ^ UID5 ^ UID6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x009</t>
@@ -367,30 +370,30 @@
   </si>
   <si>
     <t>0x001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x48</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LOCK0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x0F</t>
   </si>
   <si>
     <t>LOCK1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xE0</t>
@@ -400,44 +403,44 @@
   </si>
   <si>
     <t>OTP0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xF1</t>
   </si>
   <si>
     <t>OTP1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x10</t>
   </si>
   <si>
     <t>OTP2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xFF</t>
   </si>
   <si>
     <t>OTP3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x00F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xEE</t>
@@ -462,14 +465,14 @@
   </si>
   <si>
     <t>0x02A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x013</t>
   </si>
   <si>
     <t>0x02B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x05</t>
@@ -512,42 +515,42 @@
   </si>
   <si>
     <t>0x01A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x67</t>
   </si>
   <si>
     <t>0x01B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x07</t>
   </si>
   <si>
     <t>0x01C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x40</t>
   </si>
   <si>
     <t>0x01D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xEA</t>
   </si>
   <si>
     <t>0x01E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xEF</t>
   </si>
   <si>
     <t>0x01F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1A</t>
@@ -623,28 +626,28 @@
   </si>
   <si>
     <t>0x02C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x5B</t>
   </si>
   <si>
     <t>0x02D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x3E</t>
   </si>
   <si>
     <t>0x02E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xC6</t>
   </si>
   <si>
     <t>0x02F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x75</t>
@@ -726,7 +729,7 @@
   </si>
   <si>
     <t>0x03A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xC5</t>
@@ -736,7 +739,7 @@
   </si>
   <si>
     <t>0x03B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x5F</t>
@@ -746,7 +749,7 @@
   </si>
   <si>
     <t>0x03C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x8D</t>
@@ -756,7 +759,7 @@
   </si>
   <si>
     <t>0x03D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x78</t>
@@ -766,7 +769,7 @@
   </si>
   <si>
     <t>0x03E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x88</t>
@@ -776,7 +779,7 @@
   </si>
   <si>
     <t>0x03F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x80</t>
@@ -876,18 +879,18 @@
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x04A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1CA</t>
   </si>
   <si>
     <t>0x04B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x74</t>
@@ -900,7 +903,7 @@
   </si>
   <si>
     <t>0x04C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xD3</t>
@@ -910,14 +913,14 @@
   </si>
   <si>
     <t>0x04D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1CD</t>
   </si>
   <si>
     <t>0x04E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xF8</t>
@@ -927,7 +930,7 @@
   </si>
   <si>
     <t>0x04F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1CF</t>
@@ -1003,7 +1006,7 @@
   </si>
   <si>
     <t>0x1E0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x059</t>
@@ -1013,14 +1016,14 @@
   </si>
   <si>
     <t>0x05A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1E2</t>
   </si>
   <si>
     <t>0x05B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1E3</t>
@@ -1030,21 +1033,21 @@
   </si>
   <si>
     <t>0x05C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1E4</t>
   </si>
   <si>
     <t>0x05D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1E5</t>
   </si>
   <si>
     <t>0x05E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x65</t>
@@ -1054,7 +1057,7 @@
   </si>
   <si>
     <t>0x05F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1E</t>
@@ -1139,28 +1142,28 @@
   </si>
   <si>
     <t>0x06A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1F2</t>
   </si>
   <si>
     <t>0x06B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1F3</t>
   </si>
   <si>
     <t>0x06C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x1F4</t>
   </si>
   <si>
     <t>0x06D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x8C</t>
@@ -1170,7 +1173,7 @@
   </si>
   <si>
     <t>0x06E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x39</t>
@@ -1180,7 +1183,7 @@
   </si>
   <si>
     <t>0x06F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x36</t>
@@ -1271,7 +1274,7 @@
   </si>
   <si>
     <t>0x07A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xAC</t>
@@ -1281,7 +1284,7 @@
   </si>
   <si>
     <t>0x07B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x203</t>
@@ -1291,7 +1294,7 @@
   </si>
   <si>
     <t>0x07C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x70</t>
@@ -1301,7 +1304,7 @@
   </si>
   <si>
     <t>0x07D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x72</t>
@@ -1311,7 +1314,7 @@
   </si>
   <si>
     <t>0x07E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xB8</t>
@@ -1321,7 +1324,7 @@
   </si>
   <si>
     <t>0x07F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x207</t>
@@ -1337,7 +1340,7 @@
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x082</t>
@@ -1347,14 +1350,14 @@
   </si>
   <si>
     <t>0x00A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x083</t>
   </si>
   <si>
     <t>0x00B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x21</t>
@@ -1367,7 +1370,7 @@
   </si>
   <si>
     <t>0x00C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x085</t>
@@ -1377,7 +1380,7 @@
   </si>
   <si>
     <t>0x00D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x086</t>
@@ -1387,7 +1390,7 @@
   </si>
   <si>
     <t>0x00E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x087</t>
@@ -1397,7 +1400,7 @@
   </si>
   <si>
     <t>0x00F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x088</t>
@@ -1410,41 +1413,41 @@
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x08A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x08B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x08C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xA7</t>
   </si>
   <si>
     <t>0x08D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x08E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xB9</t>
   </si>
   <si>
     <t>0x08F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xA9</t>
@@ -1466,14 +1469,14 @@
   </si>
   <si>
     <t>0x01A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x093</t>
   </si>
   <si>
     <t>0x01B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x25</t>
@@ -1486,7 +1489,7 @@
   </si>
   <si>
     <t>0x01C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x095</t>
@@ -1496,18 +1499,18 @@
   </si>
   <si>
     <t>0x01D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x096</t>
   </si>
   <si>
     <t>0x01E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x097</t>
@@ -1517,7 +1520,7 @@
   </si>
   <si>
     <t>0x01F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x26</t>
@@ -1533,14 +1536,14 @@
   </si>
   <si>
     <t>0x09A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x4B</t>
   </si>
   <si>
     <t>0x09B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xE3</t>
@@ -1550,28 +1553,28 @@
   </si>
   <si>
     <t>0x09C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x29</t>
   </si>
   <si>
     <t>0x09D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xB5</t>
   </si>
   <si>
     <t>0x09E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x31</t>
   </si>
   <si>
     <t>0x09F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x9E</t>
@@ -1581,7 +1584,7 @@
   </si>
   <si>
     <t>0x0A0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x9A</t>
@@ -2719,7 +2722,7 @@
   </si>
   <si>
     <t>0x1E0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x79</t>
@@ -2732,42 +2735,42 @@
   </si>
   <si>
     <t>LOCK2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x208</t>
   </si>
   <si>
     <t>LOCK3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x209</t>
   </si>
   <si>
     <t>LOCK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x20A</t>
   </si>
   <si>
     <t>CHK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x20B</t>
   </si>
   <si>
     <t>CFG,MIRROR,AUTHO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x20C</t>
   </si>
   <si>
     <t>CFG,MIRROR,AUTHO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x20D</t>
@@ -2780,125 +2783,125 @@
   </si>
   <si>
     <t>ACCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x210</t>
   </si>
   <si>
     <t>ACCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x211</t>
   </si>
   <si>
     <t>--</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x212</t>
   </si>
   <si>
     <t>--</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x213</t>
   </si>
   <si>
     <t>PWD0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x214</t>
   </si>
   <si>
     <t>XX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xAA ^ UID1 ^ UID3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PWD1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x215</t>
   </si>
   <si>
     <t>XX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x55 ^ UID2 ^ UID4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PWD2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x216</t>
   </si>
   <si>
     <t>0xAA ^ UID3 ^ UID5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PWD3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x217</t>
   </si>
   <si>
     <t>XX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x55 ^ UID4 ^ UID6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PACK0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x218</t>
   </si>
   <si>
     <t>XX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PACK1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x219</t>
   </si>
   <si>
     <t>--</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x21A</t>
@@ -2908,7 +2911,7 @@
   </si>
   <si>
     <t>生产厂商</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x21C</t>
@@ -3008,15 +3011,15 @@
   </si>
   <si>
     <t>加密前数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加密后地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加密后数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xF0</t>
@@ -3032,56 +3035,355 @@
   </si>
   <si>
     <t>步骤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>16进制数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xaa</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x75</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x28</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10进制数字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>异或计算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>16进制结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十进制</t>
+  </si>
+  <si>
+    <t>十六进制</t>
+  </si>
+  <si>
+    <t>分块</t>
+  </si>
+  <si>
+    <t>加密后地址</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>计算结果</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BCC1 = UID3 ^ UID4 ^ UID5 ^ UID6</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>BCC1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>0x00A</t>
+  </si>
+  <si>
+    <t>0x00B</t>
+  </si>
+  <si>
+    <t>0x00C</t>
+  </si>
+  <si>
+    <t>0x00D</t>
+  </si>
+  <si>
+    <t>0x00E</t>
+  </si>
+  <si>
+    <t>0x00F</t>
+  </si>
+  <si>
+    <t>0x08A</t>
+  </si>
+  <si>
+    <t>0x08B</t>
+  </si>
+  <si>
+    <t>0x08C</t>
+  </si>
+  <si>
+    <t>0x08D</t>
+  </si>
+  <si>
+    <t>0x08E</t>
+  </si>
+  <si>
+    <t>0x08F</t>
+  </si>
+  <si>
+    <t>0x01A</t>
+  </si>
+  <si>
+    <t>0x01B</t>
+  </si>
+  <si>
+    <t>0x01C</t>
+  </si>
+  <si>
+    <t>0x01D</t>
+  </si>
+  <si>
+    <t>0x01E</t>
+  </si>
+  <si>
+    <t>0x01F</t>
+  </si>
+  <si>
+    <t>0x09A</t>
+  </si>
+  <si>
+    <t>0x09B</t>
+  </si>
+  <si>
+    <t>0x09C</t>
+  </si>
+  <si>
+    <t>0x09D</t>
+  </si>
+  <si>
+    <t>0x09E</t>
+  </si>
+  <si>
+    <t>0x09F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>0x03A</t>
+  </si>
+  <si>
+    <t>0x03B</t>
+  </si>
+  <si>
+    <t>0x03C</t>
+  </si>
+  <si>
+    <t>0x03D</t>
+  </si>
+  <si>
+    <t>0x03E</t>
+  </si>
+  <si>
+    <t>0x03F</t>
+  </si>
+  <si>
+    <t>0x04A</t>
+  </si>
+  <si>
+    <t>0x04B</t>
+  </si>
+  <si>
+    <t>0x04C</t>
+  </si>
+  <si>
+    <t>0x04D</t>
+  </si>
+  <si>
+    <t>0x04E</t>
+  </si>
+  <si>
+    <t>0x04F</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>NXP = 04</t>
+  </si>
+  <si>
+    <t>UID0</t>
+  </si>
+  <si>
+    <t>UID1</t>
+  </si>
+  <si>
+    <t>BCC0 = 0x88 ^ UID0 ^ UID1 ^ UID2</t>
+  </si>
+  <si>
+    <t>BCC0</t>
+  </si>
+  <si>
+    <t>UID3</t>
+  </si>
+  <si>
+    <t>UID4</t>
+  </si>
+  <si>
+    <t>UID5</t>
+  </si>
+  <si>
+    <t>UID6</t>
+  </si>
+  <si>
+    <t>04B68352AF4F80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC F6 3B D8 95 91 FE 1A 69 72 F8 C7 86 28 B1 BD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>73 3D 78 93 04 B6 83 B9 52 AF 4F 80 01 03 00 00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9F 08 BC EA 24 65 FF A1 FA 4B CC 54 7E B2 28 A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xED</t>
+  </si>
+  <si>
+    <t>0xA6</t>
+  </si>
+  <si>
+    <t>0xAF</t>
+  </si>
+  <si>
+    <t>04107A9A8E4B81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01: 01 28 36 AB E7 69 72 FA 2A D2 98 28 EE 90 8A 67</t>
+  </si>
+  <si>
+    <t>02: 5A 6F AC E3 1F CB 03 1B A5 00 03 00 30 6E 00 01</t>
+  </si>
+  <si>
+    <t>0xDE</t>
+  </si>
+  <si>
+    <t>0xE7</t>
+  </si>
+  <si>
+    <t>3B 3E 96 27 04 10 7A E6 9A 8E 4B 81 01 03 00 00</t>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b6</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>83</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameSeries_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3114,8 +3416,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3125,6 +3434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3209,69 +3524,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3589,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:K541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3601,6 +3934,7 @@
     <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3629,7 +3963,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3671,14 +4005,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B66" si="0">"0x"&amp;DEC2HEX(A3,3)</f>
+      <c r="B3" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A3,3)</f>
         <v>0x001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="9" t="str">
@@ -3706,14 +4040,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A4,3)</f>
         <v>0x002</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="9" t="str">
@@ -3741,14 +4075,14 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B5" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A5,3)</f>
         <v>0x003</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="9" t="str">
@@ -3776,14 +4110,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B6" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A6,3)</f>
         <v>0x004</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="9" t="str">
@@ -3811,14 +4145,14 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B7" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A7,3)</f>
         <v>0x005</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="9" t="str">
@@ -3846,14 +4180,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B8" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A8,3)</f>
         <v>0x006</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E8" s="9" t="str">
@@ -3881,14 +4215,14 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B9" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A9,3)</f>
         <v>0x007</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="9" t="str">
@@ -3917,7 +4251,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A10,3)</f>
         <v>0x008</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3952,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A11,3)</f>
         <v>0x009</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3987,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A12,3)</f>
         <v>0x00A</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4022,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A13,3)</f>
         <v>0x00B</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4057,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A14,3)</f>
         <v>0x00C</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4092,7 +4426,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A15,3)</f>
         <v>0x00D</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4127,7 +4461,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A16,3)</f>
         <v>0x00E</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4162,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A17,3)</f>
         <v>0x00F</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4197,7 +4531,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A18,3)</f>
         <v>0x010</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4232,7 +4566,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A19,3)</f>
         <v>0x011</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4267,7 +4601,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A20,3)</f>
         <v>0x012</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4302,7 +4636,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A21,3)</f>
         <v>0x013</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4337,7 +4671,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A22,3)</f>
         <v>0x014</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4372,7 +4706,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A23,3)</f>
         <v>0x015</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4407,7 +4741,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A24,3)</f>
         <v>0x016</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4442,7 +4776,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A25,3)</f>
         <v>0x017</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4477,7 +4811,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A26,3)</f>
         <v>0x018</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4512,7 +4846,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A27,3)</f>
         <v>0x019</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4547,7 +4881,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A28,3)</f>
         <v>0x01A</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4582,7 +4916,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A29,3)</f>
         <v>0x01B</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4617,7 +4951,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A30,3)</f>
         <v>0x01C</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4652,7 +4986,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A31,3)</f>
         <v>0x01D</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4687,7 +5021,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A32,3)</f>
         <v>0x01E</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4722,7 +5056,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A33,3)</f>
         <v>0x01F</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4757,7 +5091,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A34,3)</f>
         <v>0x020</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4792,7 +5126,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A35,3)</f>
         <v>0x021</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4827,7 +5161,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A36,3)</f>
         <v>0x022</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4862,7 +5196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A37,3)</f>
         <v>0x023</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4897,7 +5231,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A38,3)</f>
         <v>0x024</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4932,7 +5266,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A39,3)</f>
         <v>0x025</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4967,7 +5301,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A40,3)</f>
         <v>0x026</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5002,7 +5336,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A41,3)</f>
         <v>0x027</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5036,8 +5370,8 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B42" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A42,3)</f>
         <v>0x028</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5071,8 +5405,8 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B43" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A43,3)</f>
         <v>0x029</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5106,8 +5440,8 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B44" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A44,3)</f>
         <v>0x02A</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -5141,8 +5475,8 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B45" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A45,3)</f>
         <v>0x02B</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5177,7 +5511,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A46,3)</f>
         <v>0x02C</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -5212,7 +5546,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A47,3)</f>
         <v>0x02D</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5247,7 +5581,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A48,3)</f>
         <v>0x02E</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5282,7 +5616,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A49,3)</f>
         <v>0x02F</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5317,7 +5651,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A50,3)</f>
         <v>0x030</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5352,7 +5686,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A51,3)</f>
         <v>0x031</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5387,7 +5721,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A52,3)</f>
         <v>0x032</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5422,7 +5756,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A53,3)</f>
         <v>0x033</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5457,7 +5791,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A54,3)</f>
         <v>0x034</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5492,7 +5826,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A55,3)</f>
         <v>0x035</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5527,7 +5861,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A56,3)</f>
         <v>0x036</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5562,7 +5896,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A57,3)</f>
         <v>0x037</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5597,7 +5931,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A58,3)</f>
         <v>0x038</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5632,7 +5966,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A59,3)</f>
         <v>0x039</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -5667,7 +6001,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A60,3)</f>
         <v>0x03A</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5702,7 +6036,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A61,3)</f>
         <v>0x03B</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -5737,7 +6071,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A62,3)</f>
         <v>0x03C</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -5772,7 +6106,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A63,3)</f>
         <v>0x03D</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5807,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A64,3)</f>
         <v>0x03E</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5842,7 +6176,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A65,3)</f>
         <v>0x03F</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5877,7 +6211,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>"0x"&amp;DEC2HEX(A66,3)</f>
         <v>0x040</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -5912,7 +6246,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="14" t="str">
-        <f t="shared" ref="B67:B130" si="1">"0x"&amp;DEC2HEX(A67,3)</f>
+        <f>"0x"&amp;DEC2HEX(A67,3)</f>
         <v>0x041</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -5947,7 +6281,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A68,3)</f>
         <v>0x042</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -5982,7 +6316,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A69,3)</f>
         <v>0x043</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -6017,7 +6351,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A70,3)</f>
         <v>0x044</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -6052,7 +6386,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A71,3)</f>
         <v>0x045</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -6087,7 +6421,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A72,3)</f>
         <v>0x046</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -6122,7 +6456,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A73,3)</f>
         <v>0x047</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -6157,7 +6491,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A74,3)</f>
         <v>0x048</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -6192,7 +6526,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A75,3)</f>
         <v>0x049</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -6227,7 +6561,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A76,3)</f>
         <v>0x04A</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -6262,7 +6596,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A77,3)</f>
         <v>0x04B</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -6297,7 +6631,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A78,3)</f>
         <v>0x04C</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -6332,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A79,3)</f>
         <v>0x04D</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -6367,7 +6701,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A80,3)</f>
         <v>0x04E</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -6402,7 +6736,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A81,3)</f>
         <v>0x04F</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -6437,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A82,3)</f>
         <v>0x050</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -6472,7 +6806,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A83,3)</f>
         <v>0x051</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -6507,7 +6841,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A84,3)</f>
         <v>0x052</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -6542,7 +6876,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A85,3)</f>
         <v>0x053</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -6577,7 +6911,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A86,3)</f>
         <v>0x054</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -6612,7 +6946,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A87,3)</f>
         <v>0x055</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -6647,7 +6981,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A88,3)</f>
         <v>0x056</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -6682,7 +7016,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A89,3)</f>
         <v>0x057</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -6717,7 +7051,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A90,3)</f>
         <v>0x058</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -6752,7 +7086,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A91,3)</f>
         <v>0x059</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -6787,7 +7121,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A92,3)</f>
         <v>0x05A</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -6822,7 +7156,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A93,3)</f>
         <v>0x05B</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -6857,7 +7191,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A94,3)</f>
         <v>0x05C</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -6892,7 +7226,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A95,3)</f>
         <v>0x05D</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -6927,7 +7261,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A96,3)</f>
         <v>0x05E</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -6962,7 +7296,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A97,3)</f>
         <v>0x05F</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -6997,7 +7331,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A98,3)</f>
         <v>0x060</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -7032,7 +7366,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A99,3)</f>
         <v>0x061</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -7067,7 +7401,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A100,3)</f>
         <v>0x062</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -7102,7 +7436,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A101,3)</f>
         <v>0x063</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -7137,7 +7471,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A102,3)</f>
         <v>0x064</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -7172,7 +7506,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A103,3)</f>
         <v>0x065</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -7207,7 +7541,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A104,3)</f>
         <v>0x066</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -7242,7 +7576,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A105,3)</f>
         <v>0x067</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -7277,7 +7611,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A106,3)</f>
         <v>0x068</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -7312,7 +7646,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A107,3)</f>
         <v>0x069</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -7347,7 +7681,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A108,3)</f>
         <v>0x06A</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -7382,7 +7716,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A109,3)</f>
         <v>0x06B</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -7417,7 +7751,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A110,3)</f>
         <v>0x06C</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -7452,7 +7786,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A111,3)</f>
         <v>0x06D</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -7487,7 +7821,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A112,3)</f>
         <v>0x06E</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -7522,7 +7856,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A113,3)</f>
         <v>0x06F</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -7557,7 +7891,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A114,3)</f>
         <v>0x070</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -7592,7 +7926,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A115,3)</f>
         <v>0x071</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -7627,7 +7961,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A116,3)</f>
         <v>0x072</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -7662,7 +7996,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A117,3)</f>
         <v>0x073</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -7697,7 +8031,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A118,3)</f>
         <v>0x074</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -7732,7 +8066,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A119,3)</f>
         <v>0x075</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -7767,7 +8101,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A120,3)</f>
         <v>0x076</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -7802,7 +8136,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A121,3)</f>
         <v>0x077</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -7837,7 +8171,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A122,3)</f>
         <v>0x078</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -7872,7 +8206,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A123,3)</f>
         <v>0x079</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -7907,7 +8241,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A124,3)</f>
         <v>0x07A</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -7942,7 +8276,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A125,3)</f>
         <v>0x07B</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -7977,7 +8311,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A126,3)</f>
         <v>0x07C</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -8012,7 +8346,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A127,3)</f>
         <v>0x07D</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -8047,7 +8381,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A128,3)</f>
         <v>0x07E</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -8082,7 +8416,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A129,3)</f>
         <v>0x07F</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -8117,7 +8451,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>"0x"&amp;DEC2HEX(A130,3)</f>
         <v>0x080</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -8152,7 +8486,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="14" t="str">
-        <f t="shared" ref="B131:B194" si="2">"0x"&amp;DEC2HEX(A131,3)</f>
+        <f>"0x"&amp;DEC2HEX(A131,3)</f>
         <v>0x081</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -8187,7 +8521,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A132,3)</f>
         <v>0x082</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -8222,7 +8556,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A133,3)</f>
         <v>0x083</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -8257,7 +8591,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A134,3)</f>
         <v>0x084</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -8292,7 +8626,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A135,3)</f>
         <v>0x085</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -8327,7 +8661,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A136,3)</f>
         <v>0x086</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -8362,7 +8696,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A137,3)</f>
         <v>0x087</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -8397,7 +8731,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A138,3)</f>
         <v>0x088</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -8432,7 +8766,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A139,3)</f>
         <v>0x089</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -8467,7 +8801,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A140,3)</f>
         <v>0x08A</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -8502,7 +8836,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A141,3)</f>
         <v>0x08B</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -8537,7 +8871,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A142,3)</f>
         <v>0x08C</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -8572,7 +8906,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A143,3)</f>
         <v>0x08D</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -8607,7 +8941,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A144,3)</f>
         <v>0x08E</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -8642,7 +8976,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A145,3)</f>
         <v>0x08F</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -8677,7 +9011,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A146,3)</f>
         <v>0x090</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -8712,7 +9046,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A147,3)</f>
         <v>0x091</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -8747,7 +9081,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A148,3)</f>
         <v>0x092</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -8782,7 +9116,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A149,3)</f>
         <v>0x093</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -8817,7 +9151,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A150,3)</f>
         <v>0x094</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -8852,7 +9186,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A151,3)</f>
         <v>0x095</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -8887,7 +9221,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A152,3)</f>
         <v>0x096</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -8922,7 +9256,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A153,3)</f>
         <v>0x097</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -8957,7 +9291,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A154,3)</f>
         <v>0x098</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -8992,7 +9326,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A155,3)</f>
         <v>0x099</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -9027,7 +9361,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A156,3)</f>
         <v>0x09A</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -9062,7 +9396,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A157,3)</f>
         <v>0x09B</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -9097,7 +9431,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A158,3)</f>
         <v>0x09C</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -9132,7 +9466,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A159,3)</f>
         <v>0x09D</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -9167,7 +9501,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A160,3)</f>
         <v>0x09E</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -9202,7 +9536,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A161,3)</f>
         <v>0x09F</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -9237,7 +9571,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A162,3)</f>
         <v>0x0A0</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -9272,7 +9606,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A163,3)</f>
         <v>0x0A1</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -9307,7 +9641,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A164,3)</f>
         <v>0x0A2</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -9342,7 +9676,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A165,3)</f>
         <v>0x0A3</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -9377,7 +9711,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A166,3)</f>
         <v>0x0A4</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -9412,7 +9746,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A167,3)</f>
         <v>0x0A5</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -9447,7 +9781,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A168,3)</f>
         <v>0x0A6</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -9482,7 +9816,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A169,3)</f>
         <v>0x0A7</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -9517,7 +9851,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A170,3)</f>
         <v>0x0A8</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -9552,7 +9886,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A171,3)</f>
         <v>0x0A9</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -9587,7 +9921,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A172,3)</f>
         <v>0x0AA</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -9622,7 +9956,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A173,3)</f>
         <v>0x0AB</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -9657,7 +9991,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A174,3)</f>
         <v>0x0AC</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -9692,7 +10026,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A175,3)</f>
         <v>0x0AD</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -9727,7 +10061,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A176,3)</f>
         <v>0x0AE</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -9762,7 +10096,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A177,3)</f>
         <v>0x0AF</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -9797,7 +10131,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A178,3)</f>
         <v>0x0B0</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -9832,7 +10166,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A179,3)</f>
         <v>0x0B1</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -9867,7 +10201,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A180,3)</f>
         <v>0x0B2</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -9902,7 +10236,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A181,3)</f>
         <v>0x0B3</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -9937,7 +10271,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A182,3)</f>
         <v>0x0B4</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -9972,7 +10306,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A183,3)</f>
         <v>0x0B5</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -10007,7 +10341,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A184,3)</f>
         <v>0x0B6</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -10042,7 +10376,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A185,3)</f>
         <v>0x0B7</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -10077,7 +10411,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A186,3)</f>
         <v>0x0B8</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -10112,7 +10446,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A187,3)</f>
         <v>0x0B9</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -10147,7 +10481,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A188,3)</f>
         <v>0x0BA</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -10182,7 +10516,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A189,3)</f>
         <v>0x0BB</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -10217,7 +10551,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A190,3)</f>
         <v>0x0BC</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -10252,7 +10586,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A191,3)</f>
         <v>0x0BD</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -10287,7 +10621,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A192,3)</f>
         <v>0x0BE</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -10322,7 +10656,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A193,3)</f>
         <v>0x0BF</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -10357,7 +10691,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>"0x"&amp;DEC2HEX(A194,3)</f>
         <v>0x0C0</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -10392,7 +10726,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="14" t="str">
-        <f t="shared" ref="B195:B258" si="3">"0x"&amp;DEC2HEX(A195,3)</f>
+        <f>"0x"&amp;DEC2HEX(A195,3)</f>
         <v>0x0C1</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -10427,7 +10761,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A196,3)</f>
         <v>0x0C2</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -10462,7 +10796,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A197,3)</f>
         <v>0x0C3</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -10497,7 +10831,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A198,3)</f>
         <v>0x0C4</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -10532,7 +10866,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A199,3)</f>
         <v>0x0C5</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -10567,7 +10901,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A200,3)</f>
         <v>0x0C6</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -10602,7 +10936,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A201,3)</f>
         <v>0x0C7</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -10637,7 +10971,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A202,3)</f>
         <v>0x0C8</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -10672,7 +11006,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A203,3)</f>
         <v>0x0C9</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -10707,7 +11041,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A204,3)</f>
         <v>0x0CA</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -10742,7 +11076,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A205,3)</f>
         <v>0x0CB</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -10777,7 +11111,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A206,3)</f>
         <v>0x0CC</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -10812,7 +11146,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A207,3)</f>
         <v>0x0CD</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -10847,7 +11181,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A208,3)</f>
         <v>0x0CE</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -10882,7 +11216,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A209,3)</f>
         <v>0x0CF</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -10917,7 +11251,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A210,3)</f>
         <v>0x0D0</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -10952,7 +11286,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A211,3)</f>
         <v>0x0D1</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -10987,7 +11321,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A212,3)</f>
         <v>0x0D2</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -11022,7 +11356,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A213,3)</f>
         <v>0x0D3</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -11057,7 +11391,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A214,3)</f>
         <v>0x0D4</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -11092,7 +11426,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A215,3)</f>
         <v>0x0D5</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -11127,7 +11461,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A216,3)</f>
         <v>0x0D6</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -11162,7 +11496,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A217,3)</f>
         <v>0x0D7</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -11197,7 +11531,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A218,3)</f>
         <v>0x0D8</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -11232,7 +11566,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A219,3)</f>
         <v>0x0D9</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -11267,7 +11601,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A220,3)</f>
         <v>0x0DA</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -11302,7 +11636,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A221,3)</f>
         <v>0x0DB</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -11337,7 +11671,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A222,3)</f>
         <v>0x0DC</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -11372,7 +11706,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A223,3)</f>
         <v>0x0DD</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -11407,7 +11741,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A224,3)</f>
         <v>0x0DE</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -11442,7 +11776,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A225,3)</f>
         <v>0x0DF</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -11477,7 +11811,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A226,3)</f>
         <v>0x0E0</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -11512,7 +11846,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A227,3)</f>
         <v>0x0E1</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -11547,7 +11881,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A228,3)</f>
         <v>0x0E2</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -11582,7 +11916,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A229,3)</f>
         <v>0x0E3</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -11617,7 +11951,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A230,3)</f>
         <v>0x0E4</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -11652,7 +11986,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A231,3)</f>
         <v>0x0E5</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -11687,7 +12021,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A232,3)</f>
         <v>0x0E6</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -11722,7 +12056,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A233,3)</f>
         <v>0x0E7</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -11757,7 +12091,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A234,3)</f>
         <v>0x0E8</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -11792,7 +12126,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A235,3)</f>
         <v>0x0E9</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -11827,7 +12161,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A236,3)</f>
         <v>0x0EA</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -11862,7 +12196,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A237,3)</f>
         <v>0x0EB</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -11897,7 +12231,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A238,3)</f>
         <v>0x0EC</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -11932,7 +12266,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A239,3)</f>
         <v>0x0ED</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -11967,7 +12301,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A240,3)</f>
         <v>0x0EE</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -12002,7 +12336,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A241,3)</f>
         <v>0x0EF</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -12037,7 +12371,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A242,3)</f>
         <v>0x0F0</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -12072,7 +12406,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A243,3)</f>
         <v>0x0F1</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -12107,7 +12441,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A244,3)</f>
         <v>0x0F2</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -12142,7 +12476,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A245,3)</f>
         <v>0x0F3</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -12177,7 +12511,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A246,3)</f>
         <v>0x0F4</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -12212,7 +12546,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A247,3)</f>
         <v>0x0F5</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -12247,7 +12581,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A248,3)</f>
         <v>0x0F6</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -12282,7 +12616,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A249,3)</f>
         <v>0x0F7</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -12317,7 +12651,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A250,3)</f>
         <v>0x0F8</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -12352,7 +12686,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A251,3)</f>
         <v>0x0F9</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -12387,7 +12721,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A252,3)</f>
         <v>0x0FA</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -12422,7 +12756,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A253,3)</f>
         <v>0x0FB</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -12457,7 +12791,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A254,3)</f>
         <v>0x0FC</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -12492,7 +12826,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A255,3)</f>
         <v>0x0FD</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -12527,7 +12861,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A256,3)</f>
         <v>0x0FE</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -12562,7 +12896,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A257,3)</f>
         <v>0x0FF</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -12597,7 +12931,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>"0x"&amp;DEC2HEX(A258,3)</f>
         <v>0x100</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -12632,7 +12966,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="14" t="str">
-        <f t="shared" ref="B259:B322" si="4">"0x"&amp;DEC2HEX(A259,3)</f>
+        <f>"0x"&amp;DEC2HEX(A259,3)</f>
         <v>0x101</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -12667,7 +13001,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A260,3)</f>
         <v>0x102</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -12702,7 +13036,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A261,3)</f>
         <v>0x103</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -12737,7 +13071,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A262,3)</f>
         <v>0x104</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -12772,7 +13106,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A263,3)</f>
         <v>0x105</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -12807,7 +13141,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A264,3)</f>
         <v>0x106</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -12842,7 +13176,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A265,3)</f>
         <v>0x107</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -12877,7 +13211,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A266,3)</f>
         <v>0x108</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -12912,7 +13246,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A267,3)</f>
         <v>0x109</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -12947,7 +13281,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A268,3)</f>
         <v>0x10A</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -12982,7 +13316,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A269,3)</f>
         <v>0x10B</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -13017,7 +13351,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A270,3)</f>
         <v>0x10C</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -13052,7 +13386,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A271,3)</f>
         <v>0x10D</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -13087,7 +13421,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A272,3)</f>
         <v>0x10E</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -13122,7 +13456,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A273,3)</f>
         <v>0x10F</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -13157,7 +13491,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A274,3)</f>
         <v>0x110</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -13192,7 +13526,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A275,3)</f>
         <v>0x111</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -13227,7 +13561,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A276,3)</f>
         <v>0x112</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -13262,7 +13596,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A277,3)</f>
         <v>0x113</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -13297,7 +13631,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A278,3)</f>
         <v>0x114</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -13332,7 +13666,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A279,3)</f>
         <v>0x115</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -13367,7 +13701,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A280,3)</f>
         <v>0x116</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -13402,7 +13736,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A281,3)</f>
         <v>0x117</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -13437,7 +13771,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A282,3)</f>
         <v>0x118</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -13472,7 +13806,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A283,3)</f>
         <v>0x119</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -13507,7 +13841,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A284,3)</f>
         <v>0x11A</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -13542,7 +13876,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A285,3)</f>
         <v>0x11B</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -13577,7 +13911,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A286,3)</f>
         <v>0x11C</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -13612,7 +13946,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A287,3)</f>
         <v>0x11D</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -13647,7 +13981,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A288,3)</f>
         <v>0x11E</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -13682,7 +14016,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A289,3)</f>
         <v>0x11F</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -13717,7 +14051,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A290,3)</f>
         <v>0x120</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -13752,7 +14086,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A291,3)</f>
         <v>0x121</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -13787,7 +14121,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A292,3)</f>
         <v>0x122</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -13822,7 +14156,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A293,3)</f>
         <v>0x123</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -13857,7 +14191,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A294,3)</f>
         <v>0x124</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -13892,7 +14226,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A295,3)</f>
         <v>0x125</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -13927,7 +14261,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A296,3)</f>
         <v>0x126</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -13962,7 +14296,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A297,3)</f>
         <v>0x127</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -13997,7 +14331,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A298,3)</f>
         <v>0x128</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -14032,7 +14366,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A299,3)</f>
         <v>0x129</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -14067,7 +14401,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A300,3)</f>
         <v>0x12A</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -14102,7 +14436,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A301,3)</f>
         <v>0x12B</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -14137,7 +14471,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A302,3)</f>
         <v>0x12C</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -14172,7 +14506,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A303,3)</f>
         <v>0x12D</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -14207,7 +14541,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A304,3)</f>
         <v>0x12E</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -14242,7 +14576,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A305,3)</f>
         <v>0x12F</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -14277,7 +14611,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A306,3)</f>
         <v>0x130</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -14312,7 +14646,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A307,3)</f>
         <v>0x131</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -14347,7 +14681,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A308,3)</f>
         <v>0x132</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -14382,7 +14716,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A309,3)</f>
         <v>0x133</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -14417,7 +14751,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A310,3)</f>
         <v>0x134</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -14452,7 +14786,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A311,3)</f>
         <v>0x135</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -14487,7 +14821,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A312,3)</f>
         <v>0x136</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -14522,7 +14856,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A313,3)</f>
         <v>0x137</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -14557,7 +14891,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A314,3)</f>
         <v>0x138</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -14592,7 +14926,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A315,3)</f>
         <v>0x139</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -14627,7 +14961,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A316,3)</f>
         <v>0x13A</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -14662,7 +14996,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A317,3)</f>
         <v>0x13B</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -14697,7 +15031,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A318,3)</f>
         <v>0x13C</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -14732,7 +15066,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A319,3)</f>
         <v>0x13D</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -14767,7 +15101,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A320,3)</f>
         <v>0x13E</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -14802,7 +15136,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A321,3)</f>
         <v>0x13F</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -14837,7 +15171,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f>"0x"&amp;DEC2HEX(A322,3)</f>
         <v>0x140</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -14872,7 +15206,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="14" t="str">
-        <f t="shared" ref="B323:B386" si="5">"0x"&amp;DEC2HEX(A323,3)</f>
+        <f>"0x"&amp;DEC2HEX(A323,3)</f>
         <v>0x141</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -14907,7 +15241,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A324,3)</f>
         <v>0x142</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -14942,7 +15276,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A325,3)</f>
         <v>0x143</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -14977,7 +15311,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A326,3)</f>
         <v>0x144</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -15012,7 +15346,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A327,3)</f>
         <v>0x145</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -15047,7 +15381,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A328,3)</f>
         <v>0x146</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -15082,7 +15416,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A329,3)</f>
         <v>0x147</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -15117,7 +15451,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A330,3)</f>
         <v>0x148</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -15152,7 +15486,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A331,3)</f>
         <v>0x149</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -15187,7 +15521,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A332,3)</f>
         <v>0x14A</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -15222,7 +15556,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A333,3)</f>
         <v>0x14B</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -15257,7 +15591,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A334,3)</f>
         <v>0x14C</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -15292,7 +15626,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A335,3)</f>
         <v>0x14D</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -15327,7 +15661,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A336,3)</f>
         <v>0x14E</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -15362,7 +15696,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A337,3)</f>
         <v>0x14F</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -15397,7 +15731,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A338,3)</f>
         <v>0x150</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -15432,7 +15766,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A339,3)</f>
         <v>0x151</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -15467,7 +15801,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A340,3)</f>
         <v>0x152</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -15502,7 +15836,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A341,3)</f>
         <v>0x153</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -15537,7 +15871,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A342,3)</f>
         <v>0x154</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -15572,7 +15906,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A343,3)</f>
         <v>0x155</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -15607,7 +15941,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A344,3)</f>
         <v>0x156</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -15642,7 +15976,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A345,3)</f>
         <v>0x157</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -15677,7 +16011,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A346,3)</f>
         <v>0x158</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -15712,7 +16046,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A347,3)</f>
         <v>0x159</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -15747,7 +16081,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A348,3)</f>
         <v>0x15A</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -15782,7 +16116,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A349,3)</f>
         <v>0x15B</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -15817,7 +16151,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A350,3)</f>
         <v>0x15C</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -15852,7 +16186,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A351,3)</f>
         <v>0x15D</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -15887,7 +16221,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A352,3)</f>
         <v>0x15E</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -15922,7 +16256,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A353,3)</f>
         <v>0x15F</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -15957,7 +16291,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A354,3)</f>
         <v>0x160</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -15992,7 +16326,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A355,3)</f>
         <v>0x161</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -16027,7 +16361,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A356,3)</f>
         <v>0x162</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -16062,7 +16396,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A357,3)</f>
         <v>0x163</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -16097,7 +16431,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A358,3)</f>
         <v>0x164</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -16132,7 +16466,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A359,3)</f>
         <v>0x165</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -16167,7 +16501,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A360,3)</f>
         <v>0x166</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -16202,7 +16536,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A361,3)</f>
         <v>0x167</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -16237,7 +16571,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A362,3)</f>
         <v>0x168</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -16272,7 +16606,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A363,3)</f>
         <v>0x169</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -16307,7 +16641,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A364,3)</f>
         <v>0x16A</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -16342,7 +16676,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A365,3)</f>
         <v>0x16B</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -16377,7 +16711,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A366,3)</f>
         <v>0x16C</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -16412,7 +16746,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A367,3)</f>
         <v>0x16D</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -16447,7 +16781,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A368,3)</f>
         <v>0x16E</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -16482,7 +16816,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A369,3)</f>
         <v>0x16F</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -16517,7 +16851,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A370,3)</f>
         <v>0x170</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -16552,7 +16886,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A371,3)</f>
         <v>0x171</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -16587,7 +16921,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A372,3)</f>
         <v>0x172</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -16622,7 +16956,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A373,3)</f>
         <v>0x173</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -16657,7 +16991,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A374,3)</f>
         <v>0x174</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -16692,7 +17026,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A375,3)</f>
         <v>0x175</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -16727,7 +17061,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A376,3)</f>
         <v>0x176</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -16762,7 +17096,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A377,3)</f>
         <v>0x177</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -16797,7 +17131,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A378,3)</f>
         <v>0x178</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -16832,7 +17166,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A379,3)</f>
         <v>0x179</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -16867,7 +17201,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A380,3)</f>
         <v>0x17A</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -16902,7 +17236,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A381,3)</f>
         <v>0x17B</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -16937,7 +17271,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A382,3)</f>
         <v>0x17C</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -16972,7 +17306,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A383,3)</f>
         <v>0x17D</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -17007,7 +17341,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A384,3)</f>
         <v>0x17E</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -17042,7 +17376,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A385,3)</f>
         <v>0x17F</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -17077,7 +17411,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;DEC2HEX(A386,3)</f>
         <v>0x180</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -17112,7 +17446,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="14" t="str">
-        <f t="shared" ref="B387:B450" si="6">"0x"&amp;DEC2HEX(A387,3)</f>
+        <f>"0x"&amp;DEC2HEX(A387,3)</f>
         <v>0x181</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -17147,7 +17481,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A388,3)</f>
         <v>0x182</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -17182,7 +17516,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A389,3)</f>
         <v>0x183</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -17217,7 +17551,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A390,3)</f>
         <v>0x184</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -17252,7 +17586,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A391,3)</f>
         <v>0x185</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -17287,7 +17621,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A392,3)</f>
         <v>0x186</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -17322,7 +17656,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A393,3)</f>
         <v>0x187</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -17357,7 +17691,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A394,3)</f>
         <v>0x188</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -17392,7 +17726,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A395,3)</f>
         <v>0x189</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -17427,7 +17761,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A396,3)</f>
         <v>0x18A</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -17462,7 +17796,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A397,3)</f>
         <v>0x18B</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -17497,7 +17831,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A398,3)</f>
         <v>0x18C</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -17532,7 +17866,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A399,3)</f>
         <v>0x18D</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -17567,7 +17901,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A400,3)</f>
         <v>0x18E</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -17602,7 +17936,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A401,3)</f>
         <v>0x18F</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -17637,7 +17971,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A402,3)</f>
         <v>0x190</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -17672,7 +18006,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A403,3)</f>
         <v>0x191</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -17707,7 +18041,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A404,3)</f>
         <v>0x192</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -17742,7 +18076,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A405,3)</f>
         <v>0x193</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -17777,7 +18111,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A406,3)</f>
         <v>0x194</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -17812,7 +18146,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A407,3)</f>
         <v>0x195</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -17847,7 +18181,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A408,3)</f>
         <v>0x196</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -17882,7 +18216,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A409,3)</f>
         <v>0x197</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -17917,7 +18251,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A410,3)</f>
         <v>0x198</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -17952,7 +18286,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A411,3)</f>
         <v>0x199</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -17987,7 +18321,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A412,3)</f>
         <v>0x19A</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -18022,7 +18356,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A413,3)</f>
         <v>0x19B</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -18057,7 +18391,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A414,3)</f>
         <v>0x19C</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -18092,7 +18426,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A415,3)</f>
         <v>0x19D</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -18127,7 +18461,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A416,3)</f>
         <v>0x19E</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -18162,7 +18496,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A417,3)</f>
         <v>0x19F</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -18197,7 +18531,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A418,3)</f>
         <v>0x1A0</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -18232,7 +18566,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A419,3)</f>
         <v>0x1A1</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -18267,7 +18601,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A420,3)</f>
         <v>0x1A2</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -18302,7 +18636,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A421,3)</f>
         <v>0x1A3</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -18337,7 +18671,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A422,3)</f>
         <v>0x1A4</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -18372,7 +18706,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A423,3)</f>
         <v>0x1A5</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -18407,7 +18741,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A424,3)</f>
         <v>0x1A6</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -18442,7 +18776,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A425,3)</f>
         <v>0x1A7</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -18477,7 +18811,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A426,3)</f>
         <v>0x1A8</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -18512,7 +18846,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A427,3)</f>
         <v>0x1A9</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -18547,7 +18881,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A428,3)</f>
         <v>0x1AA</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -18582,7 +18916,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A429,3)</f>
         <v>0x1AB</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -18617,7 +18951,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A430,3)</f>
         <v>0x1AC</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -18652,7 +18986,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A431,3)</f>
         <v>0x1AD</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -18687,7 +19021,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A432,3)</f>
         <v>0x1AE</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -18722,7 +19056,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A433,3)</f>
         <v>0x1AF</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -18757,7 +19091,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A434,3)</f>
         <v>0x1B0</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -18792,7 +19126,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A435,3)</f>
         <v>0x1B1</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -18827,7 +19161,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A436,3)</f>
         <v>0x1B2</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -18862,7 +19196,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A437,3)</f>
         <v>0x1B3</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -18897,7 +19231,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A438,3)</f>
         <v>0x1B4</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -18932,7 +19266,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A439,3)</f>
         <v>0x1B5</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -18967,7 +19301,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A440,3)</f>
         <v>0x1B6</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -19002,7 +19336,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A441,3)</f>
         <v>0x1B7</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -19037,7 +19371,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A442,3)</f>
         <v>0x1B8</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -19072,7 +19406,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A443,3)</f>
         <v>0x1B9</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -19107,7 +19441,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A444,3)</f>
         <v>0x1BA</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -19142,7 +19476,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A445,3)</f>
         <v>0x1BB</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -19177,7 +19511,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A446,3)</f>
         <v>0x1BC</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -19212,7 +19546,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A447,3)</f>
         <v>0x1BD</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -19247,7 +19581,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A448,3)</f>
         <v>0x1BE</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -19282,7 +19616,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A449,3)</f>
         <v>0x1BF</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -19317,7 +19651,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>"0x"&amp;DEC2HEX(A450,3)</f>
         <v>0x1C0</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -19352,7 +19686,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f t="shared" ref="B451:B514" si="7">"0x"&amp;DEC2HEX(A451,3)</f>
+        <f>"0x"&amp;DEC2HEX(A451,3)</f>
         <v>0x1C1</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -19387,7 +19721,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A452,3)</f>
         <v>0x1C2</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -19422,7 +19756,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A453,3)</f>
         <v>0x1C3</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -19457,7 +19791,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A454,3)</f>
         <v>0x1C4</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -19492,7 +19826,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A455,3)</f>
         <v>0x1C5</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -19527,7 +19861,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A456,3)</f>
         <v>0x1C6</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -19562,7 +19896,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A457,3)</f>
         <v>0x1C7</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -19597,7 +19931,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A458,3)</f>
         <v>0x1C8</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -19632,7 +19966,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A459,3)</f>
         <v>0x1C9</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -19667,7 +20001,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A460,3)</f>
         <v>0x1CA</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -19702,7 +20036,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A461,3)</f>
         <v>0x1CB</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -19737,7 +20071,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A462,3)</f>
         <v>0x1CC</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -19772,7 +20106,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A463,3)</f>
         <v>0x1CD</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -19807,7 +20141,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A464,3)</f>
         <v>0x1CE</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -19837,12 +20171,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
       <c r="B465" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A465,3)</f>
         <v>0x1CF</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -19872,12 +20206,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A466,3)</f>
         <v>0x1D0</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -19907,12 +20241,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A467,3)</f>
         <v>0x1D1</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -19942,12 +20276,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A468,3)</f>
         <v>0x1D2</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -19977,12 +20311,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A469,3)</f>
         <v>0x1D3</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -20012,12 +20346,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A470,3)</f>
         <v>0x1D4</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -20047,12 +20381,12 @@
         <v>UID0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A471,3)</f>
         <v>0x1D5</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -20082,12 +20416,12 @@
         <v>UID1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A472,3)</f>
         <v>0x1D6</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -20117,12 +20451,12 @@
         <v>UID2</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
       <c r="B473" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A473,3)</f>
         <v>0x1D7</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -20152,12 +20486,12 @@
         <v>BCC0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A474,3)</f>
         <v>0x1D8</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -20187,12 +20521,12 @@
         <v>UID3</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A475,3)</f>
         <v>0x1D9</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -20222,12 +20556,12 @@
         <v>UID4</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
       <c r="B476" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A476,3)</f>
         <v>0x1DA</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -20257,12 +20591,12 @@
         <v>UID5</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
       <c r="B477" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>"0x"&amp;DEC2HEX(A477,3)</f>
         <v>0x1DB</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -20292,12 +20626,12 @@
         <v>UID6</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B478" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A478,3)</f>
         <v>0x1DC</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -20326,13 +20660,19 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B478,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J478" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K478" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B479" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A479,3)</f>
         <v>0x1DD</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -20361,13 +20701,19 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B479,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J479" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K479" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B480" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A480,3)</f>
         <v>0x1DE</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -20396,13 +20742,19 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B480,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J480" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K480" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B481" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A481,3)</f>
         <v>0x1DF</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -20431,13 +20783,16 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B481,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J481" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B482" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A482,3)</f>
         <v>0x1E0</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -20466,13 +20821,19 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B482,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J482" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K482" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B483" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A483,3)</f>
         <v>0x1E1</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -20501,13 +20862,19 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B483,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J483" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K483" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B484" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A484,3)</f>
         <v>0x1E2</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -20536,13 +20903,16 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B484,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J484" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B485" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A485,3)</f>
         <v>0x1E3</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -20571,13 +20941,16 @@
         <f>IFERROR(INDEX(加密!C:C,MATCH(B485,加密!F:F,0)),"")</f>
         <v>数据</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J485" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B486" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A486,3)</f>
         <v>0x1E4</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -20607,12 +20980,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B487" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A487,3)</f>
         <v>0x1E5</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -20642,12 +21015,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B488" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A488,3)</f>
         <v>0x1E6</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -20677,12 +21050,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B489" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A489,3)</f>
         <v>0x1E7</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -20712,12 +21085,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B490" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A490,3)</f>
         <v>0x1E8</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -20747,12 +21120,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B491" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A491,3)</f>
         <v>0x1E9</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -20782,12 +21155,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B492" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A492,3)</f>
         <v>0x1EA</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -20817,12 +21190,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B493" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A493,3)</f>
         <v>0x1EB</v>
       </c>
       <c r="C493" s="1" t="s">
@@ -20852,12 +21225,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B494" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A494,3)</f>
         <v>0x1EC</v>
       </c>
       <c r="C494" s="1" t="s">
@@ -20887,12 +21260,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B495" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A495,3)</f>
         <v>0x1ED</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -20922,12 +21295,12 @@
         <v>数据</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B496" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A496,3)</f>
         <v>0x1EE</v>
       </c>
       <c r="C496" s="1" t="s">
@@ -20961,8 +21334,8 @@
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B497" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A497,3)</f>
         <v>0x1EF</v>
       </c>
       <c r="C497" s="1" t="s">
@@ -20996,8 +21369,8 @@
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B498" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A498,3)</f>
         <v>0x1F0</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -21031,8 +21404,8 @@
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B499" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A499,3)</f>
         <v>0x1F1</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -21066,8 +21439,8 @@
       <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B500" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A500,3)</f>
         <v>0x1F2</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -21101,8 +21474,8 @@
       <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B501" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A501,3)</f>
         <v>0x1F3</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -21136,8 +21509,8 @@
       <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B502" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A502,3)</f>
         <v>0x1F4</v>
       </c>
       <c r="C502" s="1" t="s">
@@ -21171,8 +21544,8 @@
       <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B503" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A503,3)</f>
         <v>0x1F5</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -21206,8 +21579,8 @@
       <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B504" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A504,3)</f>
         <v>0x1F6</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -21241,8 +21614,8 @@
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B505" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A505,3)</f>
         <v>0x1F7</v>
       </c>
       <c r="C505" s="1" t="s">
@@ -21276,8 +21649,8 @@
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B506" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A506,3)</f>
         <v>0x1F8</v>
       </c>
       <c r="C506" s="1" t="s">
@@ -21311,8 +21684,8 @@
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B507" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A507,3)</f>
         <v>0x1F9</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -21346,8 +21719,8 @@
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B508" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A508,3)</f>
         <v>0x1FA</v>
       </c>
       <c r="C508" s="1" t="s">
@@ -21381,8 +21754,8 @@
       <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B509" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A509,3)</f>
         <v>0x1FB</v>
       </c>
       <c r="C509" s="1" t="s">
@@ -21416,8 +21789,8 @@
       <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B510" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A510,3)</f>
         <v>0x1FC</v>
       </c>
       <c r="C510" s="1" t="s">
@@ -21451,8 +21824,8 @@
       <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B511" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A511,3)</f>
         <v>0x1FD</v>
       </c>
       <c r="C511" s="1" t="s">
@@ -21486,8 +21859,8 @@
       <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B512" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A512,3)</f>
         <v>0x1FE</v>
       </c>
       <c r="C512" s="1" t="s">
@@ -21521,8 +21894,8 @@
       <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B513" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A513,3)</f>
         <v>0x1FF</v>
       </c>
       <c r="C513" s="1" t="s">
@@ -21556,8 +21929,8 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="B514" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A514,3)</f>
         <v>0x200</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -21591,8 +21964,8 @@
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" s="1" t="str">
-        <f t="shared" ref="B515:B541" si="8">"0x"&amp;DEC2HEX(A515,3)</f>
+      <c r="B515" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A515,3)</f>
         <v>0x201</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -21626,8 +21999,8 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B516" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A516,3)</f>
         <v>0x202</v>
       </c>
       <c r="C516" s="1" t="s">
@@ -21661,8 +22034,8 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B517" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A517,3)</f>
         <v>0x203</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -21696,8 +22069,8 @@
       <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B518" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A518,3)</f>
         <v>0x204</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -21731,8 +22104,8 @@
       <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B519" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A519,3)</f>
         <v>0x205</v>
       </c>
       <c r="C519" s="1" t="s">
@@ -21766,8 +22139,8 @@
       <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B520" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A520,3)</f>
         <v>0x206</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -21801,8 +22174,8 @@
       <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B521" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A521,3)</f>
         <v>0x207</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -21836,8 +22209,8 @@
       <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B522" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A522,3)</f>
         <v>0x208</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -21871,8 +22244,8 @@
       <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B523" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A523,3)</f>
         <v>0x209</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -21906,8 +22279,8 @@
       <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B524" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A524,3)</f>
         <v>0x20A</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -21941,8 +22314,8 @@
       <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B525" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A525,3)</f>
         <v>0x20B</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -21976,8 +22349,8 @@
       <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B526" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A526,3)</f>
         <v>0x20C</v>
       </c>
       <c r="C526" s="1" t="s">
@@ -22011,8 +22384,8 @@
       <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B527" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A527,3)</f>
         <v>0x20D</v>
       </c>
       <c r="C527" s="1" t="s">
@@ -22046,8 +22419,8 @@
       <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B528" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A528,3)</f>
         <v>0x20E</v>
       </c>
       <c r="C528" s="1" t="s">
@@ -22081,8 +22454,8 @@
       <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B529" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A529,3)</f>
         <v>0x20F</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -22116,8 +22489,8 @@
       <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B530" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A530,3)</f>
         <v>0x210</v>
       </c>
       <c r="C530" s="1" t="s">
@@ -22151,8 +22524,8 @@
       <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B531" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A531,3)</f>
         <v>0x211</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -22186,8 +22559,8 @@
       <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B532" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A532,3)</f>
         <v>0x212</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -22221,8 +22594,8 @@
       <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B533" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A533,3)</f>
         <v>0x213</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -22256,8 +22629,8 @@
       <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B534" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A534,3)</f>
         <v>0x214</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -22289,8 +22662,8 @@
       <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B535" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A535,3)</f>
         <v>0x215</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -22322,8 +22695,8 @@
       <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B536" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A536,3)</f>
         <v>0x216</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -22355,8 +22728,8 @@
       <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B537" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A537,3)</f>
         <v>0x217</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -22388,8 +22761,8 @@
       <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B538" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A538,3)</f>
         <v>0x218</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -22421,8 +22794,8 @@
       <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B539" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A539,3)</f>
         <v>0x219</v>
       </c>
       <c r="C539" s="1" t="s">
@@ -22454,8 +22827,8 @@
       <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B540" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A540,3)</f>
         <v>0x21A</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -22487,8 +22860,8 @@
       <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="B541" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(A541,3)</f>
         <v>0x21B</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -22518,7 +22891,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I541"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36665,7 +37038,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37049,7 +37422,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F3:F12 D3:D13" formula="1"/>
@@ -37062,7 +37435,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37138,7 +37511,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37149,7 +37522,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37179,80 +37552,2721 @@
       <c r="A2" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>944</v>
+      <c r="B2" s="27" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B3" s="9">
         <f>HEX2DEC(RIGHT(B2,2))</f>
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:E3" si="0">HEX2DEC(RIGHT(C2,2))</f>
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>875</v>
       </c>
       <c r="C4" s="9">
         <f>_xlfn.BITXOR(B3,C3)</f>
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9">
         <f>_xlfn.BITXOR(C4,D3)</f>
-        <v>247</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9">
         <f>_xlfn.BITXOR(D4,E3)</f>
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="str">
         <f>"0x"&amp;DEC2HEX(C4)</f>
-        <v>0xDF</v>
+        <v>0x8C</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" ref="D5:E5" si="1">"0x"&amp;DEC2HEX(D4)</f>
-        <v>0xF7</v>
+        <v>0x3A</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0x89</v>
+        <v>0xB9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="22" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J2" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(MID(J1,7,2)),HEX2DEC(MID(J1,9,2))),HEX2DEC(MID(J1,11,2))),HEX2DEC(MID(J1,13,2))))</f>
+        <v>0x32</v>
+      </c>
+      <c r="K2" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(MID(K1,7,2)),HEX2DEC(MID(K1,9,2))),HEX2DEC(MID(K1,11,2))),HEX2DEC(MID(K1,13,2))))</f>
+        <v>0xDE</v>
+      </c>
+      <c r="L2" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>436</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>437</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>438</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>439</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>440</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>441</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>442</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>443</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>444</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>445</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>446</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>447</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>448</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>449</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>450</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>451</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>452</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>453</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>454</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>455</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>456</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>457</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>458</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>459</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="26"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>460</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="26"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>461</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="26"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>462</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="26"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>463</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>464</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>465</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>466</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>467</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="26"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>468</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="14" t="str">
+        <f>"0x"&amp;LEFT(J1,2)</f>
+        <v>0x04</v>
+      </c>
+      <c r="K67" s="14" t="str">
+        <f>"0x"&amp;LEFT(K1,2)</f>
+        <v>0x04</v>
+      </c>
+      <c r="L67" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>469</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J68" s="14" t="str">
+        <f>"0x"&amp;MID(J1,3,2)</f>
+        <v>0xB6</v>
+      </c>
+      <c r="K68" s="14" t="str">
+        <f>"0x"&amp;MID(K1,3,2)</f>
+        <v>0x10</v>
+      </c>
+      <c r="L68" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>470</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="J69" s="14" t="str">
+        <f>"0x"&amp;MID(J1,5,2)</f>
+        <v>0x83</v>
+      </c>
+      <c r="K69" s="14" t="str">
+        <f>"0x"&amp;MID(K1,5,2)</f>
+        <v>0x7A</v>
+      </c>
+      <c r="L69" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>471</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="J70" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(88),HEX2DEC(LEFT(J1,2))),HEX2DEC(MID(J1,3,2))),HEX2DEC(MID(J1,5,2))))</f>
+        <v>0xB9</v>
+      </c>
+      <c r="K70" s="14" t="str">
+        <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(88),HEX2DEC(LEFT(K1,2))),HEX2DEC(MID(K1,3,2))),HEX2DEC(MID(K1,5,2))))</f>
+        <v>0xE6</v>
+      </c>
+      <c r="L70" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>472</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J71" s="14" t="str">
+        <f>"0x"&amp;MID(J1,7,2)</f>
+        <v>0x52</v>
+      </c>
+      <c r="K71" s="14" t="str">
+        <f>"0x"&amp;MID(K1,7,2)</f>
+        <v>0x9A</v>
+      </c>
+      <c r="L71" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>473</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J72" s="14" t="str">
+        <f>"0x"&amp;MID(J1,9,2)</f>
+        <v>0xAF</v>
+      </c>
+      <c r="K72" s="14" t="str">
+        <f>"0x"&amp;MID(K1,9,2)</f>
+        <v>0x8E</v>
+      </c>
+      <c r="L72" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>474</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J73" s="14" t="str">
+        <f>"0x"&amp;MID(J1,11,2)</f>
+        <v>0x4F</v>
+      </c>
+      <c r="K73" s="14" t="str">
+        <f>"0x"&amp;MID(K1,11,2)</f>
+        <v>0x4B</v>
+      </c>
+      <c r="L73" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>475</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="14" t="str">
+        <f>"0x"&amp;MID(J1,13,2)</f>
+        <v>0x80</v>
+      </c>
+      <c r="K74" s="14" t="str">
+        <f>"0x"&amp;MID(K1,13,2)</f>
+        <v>0x81</v>
+      </c>
+      <c r="L74" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I74"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+    <col min="2" max="13" width="4.875" customWidth="1"/>
+    <col min="14" max="17" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"0x"&amp;LEFT(A1,2)</f>
+        <v>0x3B</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"0x"&amp;MID($A$1,4,2)</f>
+        <v>0x3E</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"0x"&amp;MID($A$1,7,2)</f>
+        <v>0x96</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"0x"&amp;MID($A$1,10,2)</f>
+        <v>0x27</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"0x"&amp;MID($A$1,13,2)</f>
+        <v>0x04</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"0x"&amp;MID($A$1,16,2)</f>
+        <v>0x10</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"0x"&amp;MID($A$1,19,2)</f>
+        <v>0x7A</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"0x"&amp;MID($A$1,22,2)</f>
+        <v>0xE6</v>
+      </c>
+      <c r="J1" t="str">
+        <f>"0x"&amp;MID($A$1,25,2)</f>
+        <v>0x9A</v>
+      </c>
+      <c r="K1" t="str">
+        <f>"0x"&amp;MID($A$1,28,2)</f>
+        <v>0x8E</v>
+      </c>
+      <c r="L1" t="str">
+        <f>"0x"&amp;MID($A$1,31,2)</f>
+        <v>0x4B</v>
+      </c>
+      <c r="M1" t="str">
+        <f>"0x"&amp;MID($A$1,34,2)</f>
+        <v>0x81</v>
+      </c>
+      <c r="N1" t="str">
+        <f>"0x"&amp;MID($A$1,37,2)</f>
+        <v>0x01</v>
+      </c>
+      <c r="O1" t="str">
+        <f>"0x"&amp;MID($A$1,40,2)</f>
+        <v>0x03</v>
+      </c>
+      <c r="P1" t="str">
+        <f>"0x"&amp;MID($A$1,43,2)</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>"0x"&amp;MID($A$1,46,2)</f>
+        <v>0x00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>797</v>
+      </c>
+      <c r="I11" t="s">
+        <v>842</v>
+      </c>
+      <c r="J11" t="s">
+        <v>468</v>
+      </c>
+      <c r="K11" t="s">
+        <v>397</v>
+      </c>
+      <c r="L11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GameTools/Documents/AmiiboTools/加解密计算.xlsx
+++ b/GameTools/Documents/AmiiboTools/加解密计算.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="解密" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="异或计算" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1 (2)" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$H$74</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="1063">
   <si>
     <t>十进制</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3227,18 +3227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CC F6 3B D8 95 91 FE 1A 69 72 F8 C7 86 28 B1 BD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>73 3D 78 93 04 B6 83 B9 52 AF 4F 80 01 03 00 00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9F 08 BC EA 24 65 FF A1 FA 4B CC 54 7E B2 28 A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0xED</t>
   </si>
   <si>
@@ -3252,19 +3240,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>01: 01 28 36 AB E7 69 72 FA 2A D2 98 28 EE 90 8A 67</t>
-  </si>
-  <si>
-    <t>02: 5A 6F AC E3 1F CB 03 1B A5 00 03 00 30 6E 00 01</t>
-  </si>
-  <si>
     <t>0xDE</t>
   </si>
   <si>
     <t>0xE7</t>
-  </si>
-  <si>
-    <t>3B 3E 96 27 04 10 7A E6 9A 8E 4B 81 01 03 00 00</t>
   </si>
   <si>
     <t>步骤</t>
@@ -3358,12 +3337,393 @@
     <t>0x88 ^ UID0 ^ UID1 ^ UID2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">    00 01 02 03 04 05 06 07 08 09 0A 0B 0C 0D 0E 0F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -----------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 5F 00 00 00 00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59 71 18 09 F0 E9 5F B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01 00 0F BD 00 00 00 04</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37 B6 19 5B E4 15 D4 A4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01 00 0F BD 00 00 00 04</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1F:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 60 05 01 6C 59 D9 03 3B CE AA FB 52 CD 11 37 27</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1F: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42 57 33 DF 26 5F 80 AD 4E 88 96 D9 9D 39 1D 01</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1E: 02 3A 07 02 0D 12 75 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03 D9 42 92 EB 07 5C 44 A5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1E: 02 3A 07 02 0D 12 75 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 DF B7 2E 2C 19 61 B9 BC</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1D: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>07 46 A2 63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 04 3E E1 53 1A BD 48 81 00 05 FF 00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1D: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66 5F 41 1C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 04 E4 F6 9E 62 2C 49 80 00 05 FF 00</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1C: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38 C7 56 5A 07 CA 45 05 E4 38 36 2E 04 F5 FC CC</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1C: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70 EF AE 0D 52 95 56 CE 0D 98 17 C0 3D DF 09 AD</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1B: B2 62 18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9D </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>71 64 EE 60 C0 C0 CF BC FC 99 26 C5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1B: B2 62 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 9D </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48 95 EE 08 9B 5B F3 9B BD 0E 5E 72</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A: 86 C1 DA 11 D9 08 F1 26 7F BC 83 74 05 2A 5F 6D</t>
+  </si>
+  <si>
+    <t>19: FA 30 7A F8 42 1F 7A D9 69 A1 81 EC 6D F8 F5 B8</t>
+  </si>
+  <si>
+    <t>18: FC 0A 60 20 FA 54 90 98 C0 2C 45 64 90 E2 50 5B</t>
+  </si>
+  <si>
+    <t>17: 7A 0F 54 44 A0 4A 8F F0 4F 02 BE 13 CD F3 27 C4</t>
+  </si>
+  <si>
+    <t>16: 24 F8 91 D1 EE 2B 0B C3 AB AE 86 D6 1B 3A 29 EC</t>
+  </si>
+  <si>
+    <t>15: C4 CC EF F1 13 17 B9 6C 95 24 1D F5 08 97 63 1B</t>
+  </si>
+  <si>
+    <t>14: 07 08 6E 54 37 EB E8 30 5C 5F 25 84 19 8C 25 7F</t>
+  </si>
+  <si>
+    <t>13: AE 93 DE E2 35 41 BE 43 79 A0 8F 19 10 90 3B A2</t>
+  </si>
+  <si>
+    <t>12: AD 54 67 97 95 97 B0 73 AB 60 9B 99 DA 5D 80 43</t>
+  </si>
+  <si>
+    <t>11: C8 0C D2 D0 E4 B5 26 FF DC 44 0F 9E 84 F1 F9 EF</t>
+  </si>
+  <si>
+    <t>10: F8 9F A0 6B 5D 1F 2F C0 94 01 F7 1B A9 9F 82 7D</t>
+  </si>
+  <si>
+    <t>0F: 92 DA 20 2F 9A D1 78 29 E2 31 10 A7 EF 08 11 A3</t>
+  </si>
+  <si>
+    <t>0E: D1 55 6D F2 D0 95 99 E9 F7 BF F8 60 36 35 03 0D</t>
+  </si>
+  <si>
+    <t>0D: 55 2D EA EF DA A1 00 B9 B3 CC 1A 65 AB 05 E4 C0</t>
+  </si>
+  <si>
+    <t>0C: CA E3 EA C4 73 09 6E BD A8 DD 5F 72 C0 CB 11 FF</t>
+  </si>
+  <si>
+    <t>0B: 7C A1 3E 96 00 00 A8 C4 D9 A4 DA 76 5C 84 C1 53</t>
+  </si>
+  <si>
+    <t>0A: 90 F4 0A 86 7B 41 45 93 A8 38 D5 BB 59 0C F3 66</t>
+  </si>
+  <si>
+    <t>09: 1F A5 05 69 04 E7 BA AF 39 DD 55 57 42 3E 4F 5B</t>
+  </si>
+  <si>
+    <t>08: 8C 95 25 96 62 17 AA 0D 21 3A 20 04 FD 79 43 23</t>
+  </si>
+  <si>
+    <t>07: AA 52 46 F7 F5 7A 11 F0 DF C0 C4 5D 3B AD 2D DD</t>
+  </si>
+  <si>
+    <t>06: 2A 4A CE 35 17 07 9C 8B 09 BE D1 96 1B A0 D8 A7</t>
+  </si>
+  <si>
+    <t>05: 14 BE C5 29 C3 CF 10 5E C4 F7 4D B0 BC 4A DE B0</t>
+  </si>
+  <si>
+    <t>04: B2 21 61 D9 99 0D 75 A7 9E FD D0 90 E1 31 4D C1</t>
+  </si>
+  <si>
+    <t>03: 19 76 0B 34 33 11 19 13 B0 03 73 6E 17 98 72 F7</t>
+  </si>
+  <si>
+    <t>02: 59 57 8E F3 82 46 48 E6 A5 00 00 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>02: 7F 75 0B D0 5A 51 2C F1 A5 00 00 00 00 00 00 00</t>
+  </si>
+  <si>
+    <t>01: B0 29 04 BD 42 12 05 2C 63 EC 5E 4D BF 7D 93 1B</t>
+  </si>
+  <si>
+    <t>01: 31 69 FA E7 92 B9 BC FA E5 B3 34 B2 F6 A4 B6 B6</t>
+  </si>
+  <si>
+    <t>00: 6E 48 0F E0 F1 10 FF EE 07 84 34 94 F5 29 D5 3C</t>
+  </si>
+  <si>
+    <t>00: 87 48 0F E0 F1 10 FF EE FF D9 88 DA D4 1C B6 33</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3423,8 +3783,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3440,6 +3808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3776,13 +4150,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3834,27 +4209,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3941,10 +4295,36 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4258,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K541"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="G489" sqref="G489"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="B486" sqref="B486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20995,10 +21375,10 @@
         <v>数据</v>
       </c>
       <c r="J478" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K478" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="479" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21036,10 +21416,10 @@
         <v>数据</v>
       </c>
       <c r="J479" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K479" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="480" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21077,10 +21457,10 @@
         <v>数据</v>
       </c>
       <c r="J480" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K480" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="481" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21118,7 +21498,7 @@
         <v>数据</v>
       </c>
       <c r="J481" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21156,10 +21536,10 @@
         <v>数据</v>
       </c>
       <c r="J482" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K482" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="483" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21197,10 +21577,10 @@
         <v>数据</v>
       </c>
       <c r="J483" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K483" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="484" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21238,7 +21618,7 @@
         <v>数据</v>
       </c>
       <c r="J484" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21276,7 +21656,7 @@
         <v>数据</v>
       </c>
       <c r="J485" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="486" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -21353,7 +21733,7 @@
       <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" s="14" t="str">
+      <c r="B488" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1E6</v>
       </c>
@@ -21388,7 +21768,7 @@
       <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" s="14" t="str">
+      <c r="B489" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1E7</v>
       </c>
@@ -21423,7 +21803,7 @@
       <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" s="14" t="str">
+      <c r="B490" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1E8</v>
       </c>
@@ -21458,7 +21838,7 @@
       <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" s="14" t="str">
+      <c r="B491" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1E9</v>
       </c>
@@ -21493,7 +21873,7 @@
       <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" s="14" t="str">
+      <c r="B492" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1EA</v>
       </c>
@@ -21528,7 +21908,7 @@
       <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" s="14" t="str">
+      <c r="B493" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1EB</v>
       </c>
@@ -21563,7 +21943,7 @@
       <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" s="14" t="str">
+      <c r="B494" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1EC</v>
       </c>
@@ -21598,7 +21978,7 @@
       <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" s="14" t="str">
+      <c r="B495" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1ED</v>
       </c>
@@ -21633,7 +22013,7 @@
       <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" s="14" t="str">
+      <c r="B496" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1EE</v>
       </c>
@@ -21668,7 +22048,7 @@
       <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" s="14" t="str">
+      <c r="B497" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1EF</v>
       </c>
@@ -21703,7 +22083,7 @@
       <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" s="14" t="str">
+      <c r="B498" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F0</v>
       </c>
@@ -21738,7 +22118,7 @@
       <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" s="14" t="str">
+      <c r="B499" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F1</v>
       </c>
@@ -21773,7 +22153,7 @@
       <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" s="14" t="str">
+      <c r="B500" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F2</v>
       </c>
@@ -21808,7 +22188,7 @@
       <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" s="14" t="str">
+      <c r="B501" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F3</v>
       </c>
@@ -21843,7 +22223,7 @@
       <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" s="14" t="str">
+      <c r="B502" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F4</v>
       </c>
@@ -21878,7 +22258,7 @@
       <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" s="14" t="str">
+      <c r="B503" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F5</v>
       </c>
@@ -21913,7 +22293,7 @@
       <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" s="14" t="str">
+      <c r="B504" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F6</v>
       </c>
@@ -21948,7 +22328,7 @@
       <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" s="14" t="str">
+      <c r="B505" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F7</v>
       </c>
@@ -21983,7 +22363,7 @@
       <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" s="14" t="str">
+      <c r="B506" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F8</v>
       </c>
@@ -22018,7 +22398,7 @@
       <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" s="14" t="str">
+      <c r="B507" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1F9</v>
       </c>
@@ -22053,7 +22433,7 @@
       <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" s="14" t="str">
+      <c r="B508" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1FA</v>
       </c>
@@ -22088,7 +22468,7 @@
       <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" s="14" t="str">
+      <c r="B509" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1FB</v>
       </c>
@@ -22123,7 +22503,7 @@
       <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" s="14" t="str">
+      <c r="B510" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1FC</v>
       </c>
@@ -22158,7 +22538,7 @@
       <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" s="14" t="str">
+      <c r="B511" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1FD</v>
       </c>
@@ -22193,7 +22573,7 @@
       <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" s="14" t="str">
+      <c r="B512" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1FE</v>
       </c>
@@ -22228,7 +22608,7 @@
       <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" s="14" t="str">
+      <c r="B513" s="54" t="str">
         <f t="shared" si="7"/>
         <v>0x1FF</v>
       </c>
@@ -22263,8 +22643,8 @@
       <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" s="14" t="str">
-        <f t="shared" ref="B514:B577" si="8">"0x"&amp;DEC2HEX(A514,3)</f>
+      <c r="B514" s="54" t="str">
+        <f t="shared" ref="B514:B541" si="8">"0x"&amp;DEC2HEX(A514,3)</f>
         <v>0x200</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -22298,7 +22678,7 @@
       <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" s="14" t="str">
+      <c r="B515" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x201</v>
       </c>
@@ -22333,7 +22713,7 @@
       <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" s="14" t="str">
+      <c r="B516" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x202</v>
       </c>
@@ -22368,7 +22748,7 @@
       <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" s="14" t="str">
+      <c r="B517" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x203</v>
       </c>
@@ -22403,7 +22783,7 @@
       <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" s="14" t="str">
+      <c r="B518" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x204</v>
       </c>
@@ -22438,7 +22818,7 @@
       <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" s="14" t="str">
+      <c r="B519" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x205</v>
       </c>
@@ -22473,7 +22853,7 @@
       <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" s="14" t="str">
+      <c r="B520" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x206</v>
       </c>
@@ -22508,7 +22888,7 @@
       <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" s="14" t="str">
+      <c r="B521" s="54" t="str">
         <f t="shared" si="8"/>
         <v>0x207</v>
       </c>
@@ -23236,9 +23616,9 @@
   <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E17" sqref="E17"/>
-      <selection pane="bottomLeft" activeCell="D536" sqref="D536"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23259,30 +23639,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
@@ -23301,8 +23681,8 @@
       <c r="G2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -37383,7 +37763,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37393,25 +37773,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="str">
+      <c r="B1" s="50" t="str">
         <f>"块大小("&amp;SUM(B3:B13)&amp;")"</f>
         <v>块大小(540)</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -37769,7 +38149,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37856,7 +38236,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37887,16 +38267,16 @@
         <v>940</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -37971,9 +38351,9 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37990,104 +38370,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>946</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="34" t="s">
         <v>947</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="34" t="s">
         <v>948</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="34" t="s">
         <v>949</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="34" t="s">
         <v>950</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="35" t="s">
         <v>1000</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="36" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K1" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="I1" s="44" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>1013</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50">
+      <c r="A2" s="43">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="44" t="s">
         <v>951</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="51" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>952</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="51" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I2" s="52" t="str">
+      <c r="H2" s="44" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I2" s="45" t="str">
         <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(MID(I1,7,2)),HEX2DEC(MID(I1,9,2))),HEX2DEC(MID(I1,11,2))),HEX2DEC(MID(I1,13,2))))</f>
         <v>0x32</v>
       </c>
-      <c r="J2" s="52" t="str">
+      <c r="J2" s="45" t="str">
         <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(MID(J1,7,2)),HEX2DEC(MID(J1,9,2))),HEX2DEC(MID(J1,11,2))),HEX2DEC(MID(J1,13,2))))</f>
         <v>0xDE</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="39">
         <v>8</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="40" t="s">
         <v>953</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="22">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -38109,10 +38489,10 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="30"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="22">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -38134,10 +38514,10 @@
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="30"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -38159,10 +38539,10 @@
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="22">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -38184,10 +38564,10 @@
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="22">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -38209,10 +38589,10 @@
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="30"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="22">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -38234,10 +38614,10 @@
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="30"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="22">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -38252,17 +38632,17 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>451</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="30"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="22">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -38284,10 +38664,10 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="30"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="22">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -38302,17 +38682,17 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="16" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>466</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="22">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -38334,10 +38714,10 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="30"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="22">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -38359,10 +38739,10 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="22">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -38380,14 +38760,14 @@
         <v>121</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="22">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -38409,10 +38789,10 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="30"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="22">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -38434,10 +38814,10 @@
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="30"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="22">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -38459,10 +38839,10 @@
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="22">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -38484,10 +38864,10 @@
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="30"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="22">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -38509,10 +38889,10 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="30"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="22">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -38534,10 +38914,10 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="22">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -38559,10 +38939,10 @@
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="22">
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -38584,10 +38964,10 @@
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="22">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -38609,10 +38989,10 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="22">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -38634,10 +39014,10 @@
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="22">
         <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -38659,10 +39039,10 @@
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="22">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -38684,10 +39064,10 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="22">
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -38709,10 +39089,10 @@
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="22">
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -38734,10 +39114,10 @@
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="30"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="22">
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -38759,10 +39139,10 @@
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="30"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="22">
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -38784,10 +39164,10 @@
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="30"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="22">
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -38809,10 +39189,10 @@
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="30"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="22">
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -38834,60 +39214,60 @@
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="30"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="28">
         <v>39</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="29" t="s">
         <v>953</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="29" t="s">
         <v>977</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="38"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26">
+      <c r="A35" s="19">
         <v>436</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="28"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="22">
         <v>437</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -38909,10 +39289,10 @@
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="30"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="22">
         <v>438</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -38934,10 +39314,10 @@
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="30"/>
+      <c r="K37" s="23"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="22">
         <v>439</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -38959,10 +39339,10 @@
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="30"/>
+      <c r="K38" s="23"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="22">
         <v>440</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -38984,10 +39364,10 @@
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="30"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
+      <c r="A40" s="22">
         <v>441</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -39009,10 +39389,10 @@
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="30"/>
+      <c r="K40" s="23"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="22">
         <v>442</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -39034,10 +39414,10 @@
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="30"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="A42" s="22">
         <v>443</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -39059,10 +39439,10 @@
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="23"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
+      <c r="A43" s="22">
         <v>444</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -39084,10 +39464,10 @@
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="30"/>
+      <c r="K43" s="23"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+      <c r="A44" s="22">
         <v>445</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -39109,10 +39489,10 @@
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="30"/>
+      <c r="K44" s="23"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="A45" s="22">
         <v>446</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -39134,10 +39514,10 @@
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="30"/>
+      <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
+      <c r="A46" s="22">
         <v>447</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -39159,10 +39539,10 @@
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="30"/>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="A47" s="22">
         <v>448</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -39184,10 +39564,10 @@
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="30"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
+      <c r="A48" s="22">
         <v>449</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -39209,10 +39589,10 @@
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="30"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
+      <c r="A49" s="22">
         <v>450</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -39234,10 +39614,10 @@
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="30"/>
+      <c r="K49" s="23"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29">
+      <c r="A50" s="22">
         <v>451</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -39259,10 +39639,10 @@
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
+      <c r="A51" s="22">
         <v>452</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -39284,10 +39664,10 @@
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="30"/>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
+      <c r="A52" s="22">
         <v>453</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -39309,10 +39689,10 @@
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="30"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29">
+      <c r="A53" s="22">
         <v>454</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -39334,10 +39714,10 @@
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="30"/>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29">
+      <c r="A54" s="22">
         <v>455</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -39359,10 +39739,10 @@
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="30"/>
+      <c r="K54" s="23"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="29">
+      <c r="A55" s="22">
         <v>456</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -39384,10 +39764,10 @@
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="30"/>
+      <c r="K55" s="23"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="29">
+      <c r="A56" s="22">
         <v>457</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -39409,10 +39789,10 @@
       </c>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="30"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29">
+      <c r="A57" s="22">
         <v>458</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -39434,10 +39814,10 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29">
+      <c r="A58" s="22">
         <v>459</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -39459,10 +39839,10 @@
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="30"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="29">
+      <c r="A59" s="22">
         <v>460</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -39484,10 +39864,10 @@
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="30"/>
+      <c r="K59" s="23"/>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="29">
+      <c r="A60" s="22">
         <v>461</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -39509,10 +39889,10 @@
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
-      <c r="K60" s="30"/>
+      <c r="K60" s="23"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29">
+      <c r="A61" s="22">
         <v>462</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -39534,10 +39914,10 @@
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="23"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29">
+      <c r="A62" s="22">
         <v>463</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -39559,10 +39939,10 @@
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="23"/>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29">
+      <c r="A63" s="22">
         <v>464</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -39584,10 +39964,10 @@
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="30"/>
+      <c r="K63" s="23"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29">
+      <c r="A64" s="22">
         <v>465</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -39609,10 +39989,10 @@
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="30"/>
+      <c r="K64" s="23"/>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="29">
+      <c r="A65" s="22">
         <v>466</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -39634,72 +40014,72 @@
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="30"/>
+      <c r="K65" s="23"/>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
+      <c r="A66" s="24">
         <v>467</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32" t="s">
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H66" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="34"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="27"/>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26">
+      <c r="A67" s="19">
         <v>468</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="20" t="s">
         <v>991</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="E67" s="20" t="s">
         <v>992</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="20" t="s">
         <v>993</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H67" s="27" t="s">
+      <c r="H67" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I67" s="39" t="str">
+      <c r="I67" s="32" t="str">
         <f>"0x"&amp;LEFT(I1,2)</f>
         <v>0x04</v>
       </c>
-      <c r="J67" s="39" t="str">
+      <c r="J67" s="32" t="str">
         <f>"0x"&amp;LEFT(J1,2)</f>
         <v>0x04</v>
       </c>
-      <c r="K67" s="28">
+      <c r="K67" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="29">
+      <c r="A68" s="22">
         <v>469</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -39729,12 +40109,12 @@
         <f>"0x"&amp;MID(J1,3,2)</f>
         <v>0x10</v>
       </c>
-      <c r="K68" s="30">
+      <c r="K68" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29">
+      <c r="A69" s="22">
         <v>470</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -39764,12 +40144,12 @@
         <f>"0x"&amp;MID(J1,5,2)</f>
         <v>0x7A</v>
       </c>
-      <c r="K69" s="30">
+      <c r="K69" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29">
+      <c r="A70" s="22">
         <v>471</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -39782,7 +40162,7 @@
         <v>61</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>995</v>
@@ -39801,12 +40181,12 @@
         <f>"0x"&amp;DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(88),HEX2DEC(LEFT(J1,2))),HEX2DEC(MID(J1,3,2))),HEX2DEC(MID(J1,5,2))))</f>
         <v>0xE6</v>
       </c>
-      <c r="K70" s="30">
+      <c r="K70" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29">
+      <c r="A71" s="22">
         <v>472</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -39836,12 +40216,12 @@
         <f>"0x"&amp;MID(J1,7,2)</f>
         <v>0x9A</v>
       </c>
-      <c r="K71" s="30">
+      <c r="K71" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29">
+      <c r="A72" s="22">
         <v>473</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -39858,7 +40238,7 @@
         <v>997</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>397</v>
@@ -39871,12 +40251,12 @@
         <f>"0x"&amp;MID(J1,9,2)</f>
         <v>0x8E</v>
       </c>
-      <c r="K72" s="30">
+      <c r="K72" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="29">
+      <c r="A73" s="22">
         <v>474</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -39906,42 +40286,42 @@
         <f>"0x"&amp;MID(J1,11,2)</f>
         <v>0x4B</v>
       </c>
-      <c r="K73" s="30">
+      <c r="K73" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31">
+      <c r="A74" s="24">
         <v>475</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32" t="s">
+      <c r="E74" s="25"/>
+      <c r="F74" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="G74" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="33" t="str">
+      <c r="I74" s="26" t="str">
         <f>"0x"&amp;MID(I1,13,2)</f>
         <v>0x80</v>
       </c>
-      <c r="J74" s="33" t="str">
+      <c r="J74" s="26" t="str">
         <f>"0x"&amp;MID(J1,13,2)</f>
         <v>0x81</v>
       </c>
-      <c r="K74" s="34">
+      <c r="K74" s="27">
         <v>1</v>
       </c>
     </row>
@@ -39955,161 +40335,480 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.75" customWidth="1"/>
-    <col min="2" max="13" width="4.875" customWidth="1"/>
-    <col min="14" max="17" width="5.25" customWidth="1"/>
+    <col min="1" max="2" width="54.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B1" t="str">
-        <f>"0x"&amp;LEFT(A1,2)</f>
-        <v>0x3B</v>
-      </c>
-      <c r="C1" t="str">
-        <f>"0x"&amp;MID($A$1,4,2)</f>
-        <v>0x3E</v>
-      </c>
-      <c r="D1" t="str">
-        <f>"0x"&amp;MID($A$1,7,2)</f>
-        <v>0x96</v>
-      </c>
-      <c r="E1" t="str">
-        <f>"0x"&amp;MID($A$1,10,2)</f>
-        <v>0x27</v>
-      </c>
-      <c r="F1" t="str">
-        <f>"0x"&amp;MID($A$1,13,2)</f>
-        <v>0x04</v>
-      </c>
-      <c r="G1" t="str">
-        <f>"0x"&amp;MID($A$1,16,2)</f>
-        <v>0x10</v>
-      </c>
-      <c r="H1" t="str">
-        <f>"0x"&amp;MID($A$1,19,2)</f>
-        <v>0x7A</v>
-      </c>
-      <c r="I1" t="str">
-        <f>"0x"&amp;MID($A$1,22,2)</f>
-        <v>0xE6</v>
-      </c>
-      <c r="J1" t="str">
-        <f>"0x"&amp;MID($A$1,25,2)</f>
-        <v>0x9A</v>
-      </c>
-      <c r="K1" t="str">
-        <f>"0x"&amp;MID($A$1,28,2)</f>
-        <v>0x8E</v>
-      </c>
-      <c r="L1" t="str">
-        <f>"0x"&amp;MID($A$1,31,2)</f>
-        <v>0x4B</v>
-      </c>
-      <c r="M1" t="str">
-        <f>"0x"&amp;MID($A$1,34,2)</f>
-        <v>0x81</v>
-      </c>
-      <c r="N1" t="str">
-        <f>"0x"&amp;MID($A$1,37,2)</f>
-        <v>0x01</v>
-      </c>
-      <c r="O1" t="str">
-        <f>"0x"&amp;MID($A$1,40,2)</f>
-        <v>0x03</v>
-      </c>
-      <c r="P1" t="str">
-        <f>"0x"&amp;MID($A$1,43,2)</f>
-        <v>0x00</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>"0x"&amp;MID($A$1,46,2)</f>
-        <v>0x00</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>797</v>
-      </c>
-      <c r="I11" t="s">
-        <v>842</v>
-      </c>
-      <c r="J11" t="s">
-        <v>468</v>
-      </c>
-      <c r="K11" t="s">
-        <v>397</v>
-      </c>
-      <c r="L11" t="s">
-        <v>454</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>46</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="55">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C2" s="55">
+        <f>IF(A2=B2,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C3" s="55">
+        <f>IF(A3=B3,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C4" s="55">
+        <f>IF(A4=B4,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C5" s="55">
+        <f>IF(A5=B5,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C6" s="55">
+        <f>IF(A6=B6,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C7" s="55">
+        <f>IF(A7=B7,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C8" s="55">
+        <f>IF(A8=B8,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C9" s="55">
+        <f>IF(A9=B9,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C10" s="55">
+        <f>IF(A10=B10,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C11" s="55">
+        <f>IF(A11=B11,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C12" s="55">
+        <f>IF(A12=B12,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C13" s="55">
+        <f>IF(A13=B13,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C14" s="55">
+        <f>IF(A14=B14,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C15" s="55">
+        <f>IF(A15=B15,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C16" s="55">
+        <f>IF(A16=B16,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C17" s="55">
+        <f>IF(A17=B17,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C18" s="55">
+        <f>IF(A18=B18,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C19" s="55">
+        <f>IF(A19=B19,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C20" s="55">
+        <f>IF(A20=B20,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C21" s="55">
+        <f>IF(A21=B21,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="55" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C22" s="55">
+        <f>IF(A22=B22,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C23" s="55">
+        <f>IF(A23=B23,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C24" s="55">
+        <f>IF(A24=B24,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C25" s="55">
+        <f>IF(A25=B25,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="55" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C26" s="55">
+        <f>IF(A26=B26,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C27" s="55">
+        <f>IF(A27=B27,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C28" s="55">
+        <f>IF(A28=B28,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C29" s="55">
+        <f>IF(A29=B29,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C30" s="55">
+        <f>IF(A30=B30,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="55" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C31" s="55">
+        <f>IF(A31=B31,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C32" s="55">
+        <f>IF(A32=B32,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C33" s="55">
+        <f>IF(A33=B33,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C34" s="55">
+        <f>IF(A34=B34,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="55" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C35" s="55">
+        <f>IF(A35=B35,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C36" s="55">
+        <f>IF(A36=B36,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C37" s="55">
+        <f>IF(A37=B37,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C38" s="55">
+        <f>IF(A38=B38,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C39" s="55">
+        <f>IF(A39=B39,0,1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GameTools/Documents/AmiiboTools/加解密计算.xlsx
+++ b/GameTools/Documents/AmiiboTools/加解密计算.xlsx
@@ -30,34 +30,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="346">
   <si>
     <t>十六进制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>十进制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>算法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x000</t>
@@ -460,11 +460,11 @@
   </si>
   <si>
     <t>加密后地址</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BCC1</t>
@@ -585,27 +585,27 @@
   </si>
   <si>
     <t>NFC_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Character_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GameSeries_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UID3 ^ UID4 ^ UID5 ^ UID6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x88 ^ UID0 ^ UID1 ^ UID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>INT</t>
@@ -741,179 +741,179 @@
   </si>
   <si>
     <t>改UID后相同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不相同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>说明1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>相同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>相同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NFC卡信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tag加密数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NFC卡信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NFC卡信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Data加密数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未知数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AppID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_Nickname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_Mii_Nickname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_Write_Counter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_Write_Counter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_CountryCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_Initialize_UserData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_Initialized_AppID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_LastModifiedDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Amiibo_LastModifiedDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TP_Level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0-92</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0-92</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0-92</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_APPEARANCE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_SPECIAL_SIDE_TO_SIDE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_SPECIAL_UP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_BONUS_EFFECT1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_BONUS_EFFECT2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_LEVEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_SPECIAL_NEUTRAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_SPECIAL_DOWN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_BONUS_EFFECT3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_STATS_ATTACK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TP_Harts(/4)  SSB_STATS_DEFENSE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SSB_STATS_SPEED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Data加密数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Tag加密数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NFC_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NFC卡信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未知数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>具体数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            int value = (data[OFFSET_LEVEL] &amp; 0xFF) &lt;&lt; 8;</t>
@@ -971,169 +971,155 @@
   </si>
   <si>
     <t>NFC卡信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>加1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>算法1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>算法3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>算法2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            res += 0; //shift the value to make it positive value as the seek bar doesnt support negative</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>十进制地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>加密前地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                var year = (value &gt;&gt; 9) &amp; 0x7F;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0010001000101111</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BCC0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BCC1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UID0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>14位UID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>041A2B3C4D5E6F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法读取 全为00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不相同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生产厂商信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生产厂商信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>固定信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0x48</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1149,7 +1135,7 @@
       </rPr>
       <t>x0F</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1165,7 +1151,7 @@
       </rPr>
       <t>xE0</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1181,7 +1167,7 @@
       </rPr>
       <t>xF1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1197,7 +1183,7 @@
       </rPr>
       <t>x10</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1213,7 +1199,7 @@
       </rPr>
       <t>xFF</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1229,7 +1215,7 @@
       </rPr>
       <t>xEE</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1245,7 +1231,7 @@
       </rPr>
       <t>x</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1261,7 +1247,7 @@
       </rPr>
       <t>x00</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1277,11 +1263,11 @@
       </rPr>
       <t>x01</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0xBD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1297,7 +1283,7 @@
       </rPr>
       <t>x04</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1313,24 +1299,39 @@
       </rPr>
       <t>x5F</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>格式未知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2020,8 +2021,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2033,13 +2034,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,19 +2124,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2204,10 +2205,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,40 +2268,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2288,28 +2304,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2628,14 +2629,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G533" sqref="G533"/>
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C522" sqref="C522:C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2665,7 +2666,7 @@
         <v>140</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -2680,7 +2681,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2722,8 +2723,8 @@
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="91" t="s">
-        <v>334</v>
+      <c r="E3" s="62" t="s">
+        <v>330</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
@@ -2750,8 +2751,8 @@
       <c r="D4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="91" t="s">
-        <v>335</v>
+      <c r="E4" s="62" t="s">
+        <v>331</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
@@ -2778,8 +2779,8 @@
       <c r="D5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="91" t="s">
-        <v>336</v>
+      <c r="E5" s="62" t="s">
+        <v>332</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -2806,8 +2807,8 @@
       <c r="D6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="91" t="s">
-        <v>337</v>
+      <c r="E6" s="62" t="s">
+        <v>333</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -2834,8 +2835,8 @@
       <c r="D7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>338</v>
+      <c r="E7" s="62" t="s">
+        <v>334</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
@@ -2862,8 +2863,8 @@
       <c r="D8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="91" t="s">
-        <v>339</v>
+      <c r="E8" s="62" t="s">
+        <v>335</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
@@ -2890,8 +2891,8 @@
       <c r="D9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>340</v>
+      <c r="E9" s="62" t="s">
+        <v>336</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
@@ -2904,7 +2905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7656,7 +7657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7942,7 +7943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8592,7 +8593,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8644,7 +8645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8952,7 +8953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -9032,7 +9033,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9318,7 +9319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9396,7 +9397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9656,7 +9657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9760,7 +9761,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9890,7 +9891,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -9968,7 +9969,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -10020,7 +10021,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -10098,7 +10099,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -10176,7 +10177,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -10280,7 +10281,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -10462,7 +10463,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -10540,7 +10541,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -10800,7 +10801,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -10904,7 +10905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -11268,7 +11269,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -11346,7 +11347,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -11398,7 +11399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -11606,7 +11607,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -11764,7 +11765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -11894,7 +11895,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -11946,7 +11947,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -11998,7 +11999,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12076,7 +12077,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -12206,7 +12207,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -12388,7 +12389,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -12570,7 +12571,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -12596,7 +12597,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -12804,7 +12805,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -12882,7 +12883,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -12986,7 +12987,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -13012,7 +13013,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -13038,7 +13039,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -13064,7 +13065,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -13142,7 +13143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -13168,7 +13169,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -13220,7 +13221,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -13246,7 +13247,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -13272,7 +13273,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -13298,7 +13299,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -13324,7 +13325,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -13506,7 +13507,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -13610,7 +13611,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -13636,7 +13637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -13766,7 +13767,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -13870,7 +13871,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -13896,7 +13897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -13922,7 +13923,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -13974,7 +13975,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -14026,7 +14027,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -14052,7 +14053,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -14102,7 +14103,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -14126,7 +14127,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -14198,7 +14199,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -14246,7 +14247,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -14294,7 +14295,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -14318,7 +14319,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -14342,7 +14343,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -14438,7 +14439,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -14462,7 +14463,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -14486,7 +14487,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -14510,7 +14511,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -14558,7 +14559,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -14606,7 +14607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -14630,7 +14631,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -14726,7 +14727,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -14750,7 +14751,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -14798,7 +14799,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -14822,7 +14823,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -14846,7 +14847,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -14874,7 +14875,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -14900,7 +14901,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -14926,7 +14927,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -14954,7 +14955,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -15006,7 +15007,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -15058,7 +15059,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -15084,7 +15085,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -15110,7 +15111,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -15136,7 +15137,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -15212,7 +15213,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -15236,7 +15237,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -15269,7 +15270,7 @@
         <v>0x1E4</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="D486" s="4" t="s">
         <v>198</v>
@@ -15284,7 +15285,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -15292,8 +15293,8 @@
         <f t="shared" si="7"/>
         <v>0x1E5</v>
       </c>
-      <c r="C487" s="1" t="s">
-        <v>316</v>
+      <c r="C487" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>199</v>
@@ -15308,7 +15309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -15317,7 +15318,7 @@
         <v>0x1E6</v>
       </c>
       <c r="C488" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>200</v>
@@ -15332,7 +15333,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>0x1E7</v>
       </c>
       <c r="C489" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>201</v>
@@ -15356,7 +15357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>0x1E8</v>
       </c>
       <c r="C490" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>48</v>
@@ -15380,7 +15381,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -15389,7 +15390,7 @@
         <v>0x1E9</v>
       </c>
       <c r="C491" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>49</v>
@@ -15404,7 +15405,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -15413,7 +15414,7 @@
         <v>0x1EA</v>
       </c>
       <c r="C492" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>50</v>
@@ -15428,7 +15429,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -15437,7 +15438,7 @@
         <v>0x1EB</v>
       </c>
       <c r="C493" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>51</v>
@@ -15452,7 +15453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>0x1EC</v>
       </c>
       <c r="C494" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>52</v>
@@ -15476,7 +15477,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -15485,7 +15486,7 @@
         <v>0x1ED</v>
       </c>
       <c r="C495" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>53</v>
@@ -15500,7 +15501,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>0x1EE</v>
       </c>
       <c r="C496" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>54</v>
@@ -15524,7 +15525,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>0x1EF</v>
       </c>
       <c r="C497" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D497" s="4" t="s">
         <v>55</v>
@@ -15548,7 +15549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -15557,7 +15558,7 @@
         <v>0x1F0</v>
       </c>
       <c r="C498" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>56</v>
@@ -15572,7 +15573,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>0x1F1</v>
       </c>
       <c r="C499" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>57</v>
@@ -15596,7 +15597,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>0x1F2</v>
       </c>
       <c r="C500" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>202</v>
@@ -15620,7 +15621,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -15629,7 +15630,7 @@
         <v>0x1F3</v>
       </c>
       <c r="C501" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D501" s="4" t="s">
         <v>203</v>
@@ -15644,7 +15645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>0x1F4</v>
       </c>
       <c r="C502" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D502" s="4" t="s">
         <v>204</v>
@@ -15668,7 +15669,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>0x1F5</v>
       </c>
       <c r="C503" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D503" s="4" t="s">
         <v>205</v>
@@ -15692,7 +15693,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>0x1F6</v>
       </c>
       <c r="C504" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D504" s="4" t="s">
         <v>206</v>
@@ -15716,7 +15717,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -15725,7 +15726,7 @@
         <v>0x1F7</v>
       </c>
       <c r="C505" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D505" s="4" t="s">
         <v>207</v>
@@ -15740,7 +15741,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -15749,7 +15750,7 @@
         <v>0x1F8</v>
       </c>
       <c r="C506" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>58</v>
@@ -15764,7 +15765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>0x1F9</v>
       </c>
       <c r="C507" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D507" s="4" t="s">
         <v>59</v>
@@ -15788,7 +15789,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>0x1FA</v>
       </c>
       <c r="C508" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>60</v>
@@ -15812,7 +15813,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -15821,7 +15822,7 @@
         <v>0x1FB</v>
       </c>
       <c r="C509" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>61</v>
@@ -15836,7 +15837,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -15845,7 +15846,7 @@
         <v>0x1FC</v>
       </c>
       <c r="C510" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D510" s="4" t="s">
         <v>62</v>
@@ -15860,7 +15861,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -15869,7 +15870,7 @@
         <v>0x1FD</v>
       </c>
       <c r="C511" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D511" s="4" t="s">
         <v>63</v>
@@ -15884,7 +15885,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>0x1FE</v>
       </c>
       <c r="C512" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>64</v>
@@ -15908,7 +15909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -15917,7 +15918,7 @@
         <v>0x1FF</v>
       </c>
       <c r="C513" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D513" s="4" t="s">
         <v>65</v>
@@ -15932,7 +15933,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -15941,7 +15942,7 @@
         <v>0x200</v>
       </c>
       <c r="C514" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D514" s="4" t="s">
         <v>66</v>
@@ -15956,7 +15957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>0x201</v>
       </c>
       <c r="C515" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D515" s="4" t="s">
         <v>67</v>
@@ -15980,7 +15981,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -15989,7 +15990,7 @@
         <v>0x202</v>
       </c>
       <c r="C516" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D516" s="4" t="s">
         <v>208</v>
@@ -16004,7 +16005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>0x203</v>
       </c>
       <c r="C517" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D517" s="4" t="s">
         <v>209</v>
@@ -16028,7 +16029,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>0x204</v>
       </c>
       <c r="C518" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D518" s="4" t="s">
         <v>210</v>
@@ -16052,7 +16053,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>0x205</v>
       </c>
       <c r="C519" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D519" s="4" t="s">
         <v>211</v>
@@ -16076,7 +16077,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>0x206</v>
       </c>
       <c r="C520" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D520" s="4" t="s">
         <v>212</v>
@@ -16100,7 +16101,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -16109,7 +16110,7 @@
         <v>0x207</v>
       </c>
       <c r="C521" s="39" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="D521" s="4" t="s">
         <v>213</v>
@@ -16133,13 +16134,13 @@
         <v>0x208</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D522" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E522" s="91" t="s">
-        <v>343</v>
+      <c r="E522" s="62" t="s">
+        <v>339</v>
       </c>
       <c r="F522" s="14"/>
       <c r="G522" s="14" t="s">
@@ -16160,14 +16161,14 @@
         <f t="shared" si="8"/>
         <v>0x209</v>
       </c>
-      <c r="C523" s="1" t="s">
-        <v>318</v>
+      <c r="C523" s="39" t="s">
+        <v>313</v>
       </c>
       <c r="D523" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E523" s="91" t="s">
-        <v>342</v>
+      <c r="E523" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F523" s="14"/>
       <c r="G523" s="14" t="s">
@@ -16189,13 +16190,13 @@
         <v>0x20A</v>
       </c>
       <c r="C524" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E524" s="91" t="s">
-        <v>335</v>
+      <c r="E524" s="62" t="s">
+        <v>331</v>
       </c>
       <c r="F524" s="14"/>
       <c r="G524" s="14" t="s">
@@ -16217,13 +16218,13 @@
         <v>0x20B</v>
       </c>
       <c r="C525" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E525" s="91" t="s">
-        <v>344</v>
+      <c r="E525" s="62" t="s">
+        <v>340</v>
       </c>
       <c r="F525" s="14"/>
       <c r="G525" s="14" t="s">
@@ -16245,13 +16246,13 @@
         <v>0x20C</v>
       </c>
       <c r="C526" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E526" s="91" t="s">
-        <v>342</v>
+      <c r="E526" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F526" s="14"/>
       <c r="G526" s="14" t="s">
@@ -16273,13 +16274,13 @@
         <v>0x20D</v>
       </c>
       <c r="C527" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D527" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E527" s="91" t="s">
-        <v>342</v>
+      <c r="E527" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F527" s="14"/>
       <c r="G527" s="14" t="s">
@@ -16301,13 +16302,13 @@
         <v>0x20E</v>
       </c>
       <c r="C528" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E528" s="91" t="s">
-        <v>342</v>
+      <c r="E528" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F528" s="14"/>
       <c r="G528" s="14" t="s">
@@ -16329,13 +16330,13 @@
         <v>0x20F</v>
       </c>
       <c r="C529" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E529" s="91" t="s">
-        <v>345</v>
+      <c r="E529" s="62" t="s">
+        <v>341</v>
       </c>
       <c r="F529" s="14"/>
       <c r="G529" s="14" t="s">
@@ -16357,13 +16358,13 @@
         <v>0x210</v>
       </c>
       <c r="C530" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E530" s="91" t="s">
-        <v>346</v>
+      <c r="E530" s="62" t="s">
+        <v>342</v>
       </c>
       <c r="F530" s="14"/>
       <c r="G530" s="14" t="s">
@@ -16385,13 +16386,13 @@
         <v>0x211</v>
       </c>
       <c r="C531" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E531" s="91" t="s">
-        <v>342</v>
+      <c r="E531" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F531" s="14"/>
       <c r="G531" s="14" t="s">
@@ -16413,13 +16414,13 @@
         <v>0x212</v>
       </c>
       <c r="C532" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E532" s="91" t="s">
-        <v>342</v>
+      <c r="E532" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F532" s="14"/>
       <c r="G532" s="14" t="s">
@@ -16441,13 +16442,13 @@
         <v>0x213</v>
       </c>
       <c r="C533" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D533" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E533" s="91" t="s">
-        <v>342</v>
+      <c r="E533" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F533" s="14"/>
       <c r="G533" s="14" t="s">
@@ -16469,13 +16470,13 @@
         <v>0x214</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D534" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E534" s="91" t="s">
-        <v>341</v>
+      <c r="E534" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="F534" s="14" t="s">
         <v>221</v>
@@ -16499,13 +16500,13 @@
         <v>0x215</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D535" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E535" s="91" t="s">
-        <v>341</v>
+      <c r="E535" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="F535" s="14" t="s">
         <v>223</v>
@@ -16529,13 +16530,13 @@
         <v>0x216</v>
       </c>
       <c r="C536" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E536" s="91" t="s">
-        <v>341</v>
+      <c r="E536" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="F536" s="14" t="s">
         <v>225</v>
@@ -16559,13 +16560,13 @@
         <v>0x217</v>
       </c>
       <c r="C537" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E537" s="91" t="s">
-        <v>341</v>
+      <c r="E537" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="F537" s="14" t="s">
         <v>227</v>
@@ -16589,13 +16590,13 @@
         <v>0x218</v>
       </c>
       <c r="C538" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E538" s="91" t="s">
-        <v>341</v>
+      <c r="E538" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="F538" s="14"/>
       <c r="G538" s="14" t="s">
@@ -16617,13 +16618,13 @@
         <v>0x219</v>
       </c>
       <c r="C539" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E539" s="91" t="s">
-        <v>341</v>
+      <c r="E539" s="62" t="s">
+        <v>337</v>
       </c>
       <c r="F539" s="14"/>
       <c r="G539" s="14" t="s">
@@ -16645,13 +16646,13 @@
         <v>0x21A</v>
       </c>
       <c r="C540" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E540" s="91" t="s">
-        <v>342</v>
+      <c r="E540" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F540" s="14"/>
       <c r="G540" s="14" t="s">
@@ -16673,13 +16674,13 @@
         <v>0x21B</v>
       </c>
       <c r="C541" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E541" s="91" t="s">
-        <v>342</v>
+      <c r="E541" s="62" t="s">
+        <v>338</v>
       </c>
       <c r="F541" s="14"/>
       <c r="G541" s="14" t="s">
@@ -16692,7 +16693,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -16701,7 +16702,7 @@
         <v>0x21C</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D542" s="4" t="s">
         <v>108</v>
@@ -16709,14 +16710,14 @@
       <c r="E542" s="4"/>
       <c r="F542" s="14"/>
       <c r="G542" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H542" s="1"/>
       <c r="I542" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>0x21D</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D543" s="4" t="s">
         <v>109</v>
@@ -16733,14 +16734,14 @@
       <c r="E543" s="4"/>
       <c r="F543" s="14"/>
       <c r="G543" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H543" s="1"/>
       <c r="I543" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -16749,7 +16750,7 @@
         <v>0x21E</v>
       </c>
       <c r="C544" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D544" s="4" t="s">
         <v>110</v>
@@ -16757,14 +16758,14 @@
       <c r="E544" s="4"/>
       <c r="F544" s="14"/>
       <c r="G544" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H544" s="1"/>
       <c r="I544" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -16773,7 +16774,7 @@
         <v>0x21F</v>
       </c>
       <c r="C545" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D545" s="4" t="s">
         <v>111</v>
@@ -16781,14 +16782,14 @@
       <c r="E545" s="4"/>
       <c r="F545" s="14"/>
       <c r="G545" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H545" s="1"/>
       <c r="I545" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -16797,7 +16798,7 @@
         <v>0x220</v>
       </c>
       <c r="C546" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>112</v>
@@ -16805,14 +16806,14 @@
       <c r="E546" s="4"/>
       <c r="F546" s="14"/>
       <c r="G546" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H546" s="1"/>
       <c r="I546" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>0x221</v>
       </c>
       <c r="C547" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>113</v>
@@ -16829,14 +16830,14 @@
       <c r="E547" s="4"/>
       <c r="F547" s="14"/>
       <c r="G547" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H547" s="1"/>
       <c r="I547" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -16845,7 +16846,7 @@
         <v>0x222</v>
       </c>
       <c r="C548" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D548" s="4" t="s">
         <v>114</v>
@@ -16853,14 +16854,14 @@
       <c r="E548" s="4"/>
       <c r="F548" s="14"/>
       <c r="G548" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H548" s="1"/>
       <c r="I548" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -16869,7 +16870,7 @@
         <v>0x223</v>
       </c>
       <c r="C549" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D549" s="4" t="s">
         <v>115</v>
@@ -16877,14 +16878,14 @@
       <c r="E549" s="4"/>
       <c r="F549" s="14"/>
       <c r="G549" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H549" s="1"/>
       <c r="I549" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -16893,7 +16894,7 @@
         <v>0x224</v>
       </c>
       <c r="C550" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>116</v>
@@ -16901,14 +16902,14 @@
       <c r="E550" s="4"/>
       <c r="F550" s="14"/>
       <c r="G550" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H550" s="1"/>
       <c r="I550" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -16917,7 +16918,7 @@
         <v>0x225</v>
       </c>
       <c r="C551" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D551" s="4" t="s">
         <v>117</v>
@@ -16925,14 +16926,14 @@
       <c r="E551" s="4"/>
       <c r="F551" s="14"/>
       <c r="G551" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H551" s="1"/>
       <c r="I551" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>0x226</v>
       </c>
       <c r="C552" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>118</v>
@@ -16949,14 +16950,14 @@
       <c r="E552" s="4"/>
       <c r="F552" s="14"/>
       <c r="G552" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H552" s="1"/>
       <c r="I552" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>0x227</v>
       </c>
       <c r="C553" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D553" s="4" t="s">
         <v>119</v>
@@ -16973,14 +16974,14 @@
       <c r="E553" s="4"/>
       <c r="F553" s="14"/>
       <c r="G553" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>0x228</v>
       </c>
       <c r="C554" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D554" s="4" t="s">
         <v>120</v>
@@ -16997,14 +16998,14 @@
       <c r="E554" s="4"/>
       <c r="F554" s="14"/>
       <c r="G554" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H554" s="1"/>
       <c r="I554" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>0x229</v>
       </c>
       <c r="C555" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D555" s="4" t="s">
         <v>121</v>
@@ -17021,14 +17022,14 @@
       <c r="E555" s="4"/>
       <c r="F555" s="14"/>
       <c r="G555" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H555" s="1"/>
       <c r="I555" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>0x22A</v>
       </c>
       <c r="C556" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D556" s="4" t="s">
         <v>122</v>
@@ -17045,14 +17046,14 @@
       <c r="E556" s="4"/>
       <c r="F556" s="14"/>
       <c r="G556" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -17061,7 +17062,7 @@
         <v>0x22B</v>
       </c>
       <c r="C557" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D557" s="4" t="s">
         <v>123</v>
@@ -17069,14 +17070,14 @@
       <c r="E557" s="4"/>
       <c r="F557" s="14"/>
       <c r="G557" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>0x22C</v>
       </c>
       <c r="C558" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D558" s="4" t="s">
         <v>124</v>
@@ -17093,14 +17094,14 @@
       <c r="E558" s="4"/>
       <c r="F558" s="14"/>
       <c r="G558" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -17109,7 +17110,7 @@
         <v>0x22D</v>
       </c>
       <c r="C559" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D559" s="4" t="s">
         <v>125</v>
@@ -17117,14 +17118,14 @@
       <c r="E559" s="4"/>
       <c r="F559" s="14"/>
       <c r="G559" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>0x22E</v>
       </c>
       <c r="C560" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D560" s="4" t="s">
         <v>126</v>
@@ -17141,14 +17142,14 @@
       <c r="E560" s="4"/>
       <c r="F560" s="14"/>
       <c r="G560" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>0x22F</v>
       </c>
       <c r="C561" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D561" s="4" t="s">
         <v>127</v>
@@ -17165,14 +17166,14 @@
       <c r="E561" s="4"/>
       <c r="F561" s="14"/>
       <c r="G561" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H561" s="1"/>
       <c r="I561" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>0x230</v>
       </c>
       <c r="C562" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D562" s="4" t="s">
         <v>128</v>
@@ -17189,14 +17190,14 @@
       <c r="E562" s="4"/>
       <c r="F562" s="14"/>
       <c r="G562" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H562" s="1"/>
       <c r="I562" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -17205,7 +17206,7 @@
         <v>0x231</v>
       </c>
       <c r="C563" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D563" s="4" t="s">
         <v>129</v>
@@ -17213,14 +17214,14 @@
       <c r="E563" s="4"/>
       <c r="F563" s="14"/>
       <c r="G563" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H563" s="1"/>
       <c r="I563" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -17229,7 +17230,7 @@
         <v>0x232</v>
       </c>
       <c r="C564" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D564" s="4" t="s">
         <v>130</v>
@@ -17237,14 +17238,14 @@
       <c r="E564" s="4"/>
       <c r="F564" s="14"/>
       <c r="G564" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H564" s="1"/>
       <c r="I564" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>0x233</v>
       </c>
       <c r="C565" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D565" s="4" t="s">
         <v>131</v>
@@ -17261,14 +17262,14 @@
       <c r="E565" s="4"/>
       <c r="F565" s="14"/>
       <c r="G565" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H565" s="1"/>
       <c r="I565" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -17277,7 +17278,7 @@
         <v>0x234</v>
       </c>
       <c r="C566" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D566" s="4" t="s">
         <v>132</v>
@@ -17285,14 +17286,14 @@
       <c r="E566" s="4"/>
       <c r="F566" s="14"/>
       <c r="G566" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H566" s="1"/>
       <c r="I566" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>0x235</v>
       </c>
       <c r="C567" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D567" s="4" t="s">
         <v>133</v>
@@ -17309,14 +17310,14 @@
       <c r="E567" s="4"/>
       <c r="F567" s="14"/>
       <c r="G567" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H567" s="1"/>
       <c r="I567" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>0x236</v>
       </c>
       <c r="C568" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D568" s="4" t="s">
         <v>134</v>
@@ -17333,14 +17334,14 @@
       <c r="E568" s="4"/>
       <c r="F568" s="14"/>
       <c r="G568" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H568" s="1"/>
       <c r="I568" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -17349,7 +17350,7 @@
         <v>0x237</v>
       </c>
       <c r="C569" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D569" s="4" t="s">
         <v>135</v>
@@ -17357,14 +17358,14 @@
       <c r="E569" s="4"/>
       <c r="F569" s="14"/>
       <c r="G569" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H569" s="1"/>
       <c r="I569" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -17373,7 +17374,7 @@
         <v>0x238</v>
       </c>
       <c r="C570" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D570" s="4" t="s">
         <v>136</v>
@@ -17381,14 +17382,14 @@
       <c r="E570" s="4"/>
       <c r="F570" s="14"/>
       <c r="G570" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H570" s="1"/>
       <c r="I570" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>0x239</v>
       </c>
       <c r="C571" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D571" s="4" t="s">
         <v>137</v>
@@ -17405,14 +17406,14 @@
       <c r="E571" s="4"/>
       <c r="F571" s="14"/>
       <c r="G571" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H571" s="1"/>
       <c r="I571" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -17421,7 +17422,7 @@
         <v>0x23A</v>
       </c>
       <c r="C572" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D572" s="4" t="s">
         <v>138</v>
@@ -17429,14 +17430,14 @@
       <c r="E572" s="4"/>
       <c r="F572" s="14"/>
       <c r="G572" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H572" s="1"/>
       <c r="I572" s="39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -17445,7 +17446,7 @@
         <v>0x23B</v>
       </c>
       <c r="C573" s="39" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D573" s="4" t="s">
         <v>139</v>
@@ -17453,27 +17454,16 @@
       <c r="E573" s="4"/>
       <c r="F573" s="14"/>
       <c r="G573" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H573" s="1"/>
       <c r="I573" s="39" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I573">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="NFC卡信息"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="相同"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="A1:I573"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -17487,7 +17477,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" activeCellId="2" sqref="Q12:T13 Q16:T16 Q3:T3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17505,45 +17495,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="75" t="str">
+      <c r="B1" s="72" t="str">
         <f>"块大小("&amp;SUM(B3:B17)&amp;")"</f>
         <v>块大小(572)</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="72" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="72" t="s">
-        <v>328</v>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="67" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
@@ -17562,7 +17552,7 @@
       <c r="G2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="73"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="37">
         <v>0</v>
       </c>
@@ -17599,7 +17589,7 @@
       <c r="T2" s="36">
         <v>11</v>
       </c>
-      <c r="U2" s="73"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
@@ -17655,10 +17645,10 @@
       <c r="P3" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="64"/>
       <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18076,10 +18066,10 @@
       <c r="P12" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="95"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
       <c r="U12" s="27"/>
     </row>
     <row r="13" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18113,27 +18103,27 @@
       <c r="H13" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="66" t="s">
+      <c r="M13" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="N13" s="65"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="95"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="66"/>
       <c r="U13" s="27"/>
     </row>
     <row r="14" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B14" s="58">
         <f>COUNTIF(解密后数据!C:C,解密后分块!A14)</f>
@@ -18175,12 +18165,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="18"/>
       <c r="U14" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B15" s="58">
         <f>COUNTIF(解密后数据!C:C,解密后分块!A15)</f>
@@ -18221,25 +18211,25 @@
       <c r="L15" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="M15" s="62" t="s">
+      <c r="M15" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="62" t="s">
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="R15" s="63"/>
-      <c r="S15" s="62" t="s">
+      <c r="R15" s="77"/>
+      <c r="S15" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="T15" s="71"/>
+      <c r="T15" s="83"/>
       <c r="U15" s="27"/>
     </row>
     <row r="16" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B16" s="58">
         <f>COUNTIF(解密后数据!C:C,解密后分块!A16)</f>
@@ -18286,21 +18276,21 @@
       <c r="N16" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="O16" s="62" t="s">
+      <c r="O16" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="95"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="66"/>
       <c r="U16" s="27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="B17" s="59">
         <f>COUNTIF(解密后数据!C:C,解密后分块!A17)</f>
@@ -18327,7 +18317,7 @@
         <v>0x023B</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="9"/>
@@ -18342,17 +18332,11 @@
       <c r="S17" s="9"/>
       <c r="T17" s="19"/>
       <c r="U17" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="M13:N13"/>
@@ -18360,10 +18344,16 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D16:D17 F16:F17 F3:F15 D4:D15" formula="1"/>
   </ignoredErrors>
@@ -18375,7 +18365,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18387,7 +18377,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>295</v>
       </c>
       <c r="B1" s="46" t="s">
@@ -18398,7 +18388,7 @@
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="47" t="s">
         <v>276</v>
       </c>
@@ -18407,7 +18397,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="47" t="s">
         <v>277</v>
       </c>
@@ -18416,7 +18406,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="47" t="s">
         <v>278</v>
       </c>
@@ -18425,7 +18415,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="47" t="s">
         <v>279</v>
       </c>
@@ -18434,7 +18424,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="47" t="s">
         <v>280</v>
       </c>
@@ -18443,7 +18433,7 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="47" t="s">
         <v>281</v>
       </c>
@@ -18452,7 +18442,7 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="48" t="s">
         <v>282</v>
       </c>
@@ -18461,7 +18451,7 @@
       <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="84" t="s">
         <v>297</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -18472,7 +18462,7 @@
       <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="47" t="s">
         <v>284</v>
       </c>
@@ -18481,7 +18471,7 @@
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="47" t="s">
         <v>285</v>
       </c>
@@ -18490,7 +18480,7 @@
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="47" t="s">
         <v>298</v>
       </c>
@@ -18499,7 +18489,7 @@
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="47" t="s">
         <v>286</v>
       </c>
@@ -18508,7 +18498,7 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="47" t="s">
         <v>287</v>
       </c>
@@ -18517,7 +18507,7 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="47" t="s">
         <v>288</v>
       </c>
@@ -18526,7 +18516,7 @@
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="47" t="s">
         <v>289</v>
       </c>
@@ -18535,7 +18525,7 @@
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="49" t="s">
         <v>290</v>
       </c>
@@ -18544,20 +18534,20 @@
       <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="87" t="s">
         <v>296</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="51" t="s">
         <v>292</v>
       </c>
@@ -18575,7 +18565,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="52" t="s">
         <v>301</v>
       </c>
@@ -18599,7 +18589,7 @@
     <mergeCell ref="A1:A8"/>
     <mergeCell ref="C18:E18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -18610,7 +18600,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18621,27 +18611,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+        <v>320</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>325</v>
+      <c r="A2" s="93" t="s">
+        <v>321</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>9</v>
@@ -18660,7 +18650,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="6" t="str">
         <f>LEFT(B1,2)</f>
         <v>04</v>
@@ -18691,7 +18681,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="6">
         <f>HEX2DEC(B3)</f>
         <v>4</v>
@@ -18722,14 +18712,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89" t="s">
-        <v>326</v>
+      <c r="A5" s="94" t="s">
+        <v>322</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="61" t="s">
@@ -18746,7 +18736,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="6" t="str">
         <f>DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC("88"),B4),C4),D4))</f>
         <v>BD</v>
@@ -18779,7 +18769,7 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/GameTools/Documents/AmiiboTools/加解密计算.xlsx
+++ b/GameTools/Documents/AmiiboTools/加解密计算.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaolei\Documents\Visual Studio 2015\Projects\GameTools\GameTools\Documents\AmiiboTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anter\Documents\Visual Studio 2015\Projects\GameTools\GameTools\Documents\AmiiboTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="解密后数据" sheetId="11" r:id="rId1"/>
@@ -3926,6 +3926,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3944,37 +3986,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4041,21 +4056,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4381,7 +4381,7 @@
   <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
@@ -19222,8 +19222,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19241,18 +19241,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="162" t="str">
+      <c r="C1" s="157" t="str">
         <f>"块大小("&amp;SUM(C3:C17)&amp;")"</f>
         <v>块大小(572)</v>
       </c>
-      <c r="D1" s="163"/>
-      <c r="E1" s="161" t="s">
+      <c r="D1" s="158"/>
+      <c r="E1" s="154" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="155"/>
@@ -19260,7 +19260,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="156"/>
-      <c r="I1" s="154" t="s">
+      <c r="I1" s="168" t="s">
         <v>268</v>
       </c>
       <c r="J1" s="155"/>
@@ -19274,13 +19274,13 @@
       <c r="R1" s="155"/>
       <c r="S1" s="155"/>
       <c r="T1" s="156"/>
-      <c r="U1" s="159" t="s">
+      <c r="U1" s="152" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
-      <c r="B2" s="189"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
@@ -19335,13 +19335,13 @@
       <c r="T2" s="36">
         <v>11</v>
       </c>
-      <c r="U2" s="160"/>
+      <c r="U2" s="153"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="149" t="s">
         <v>742</v>
       </c>
       <c r="C3" s="57">
@@ -19401,7 +19401,7 @@
       <c r="A4" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="150" t="s">
         <v>264</v>
       </c>
       <c r="C4" s="58">
@@ -19446,7 +19446,7 @@
       <c r="A5" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="150" t="s">
         <v>725</v>
       </c>
       <c r="C5" s="58">
@@ -19491,7 +19491,7 @@
       <c r="A6" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="150" t="s">
         <v>727</v>
       </c>
       <c r="C6" s="58">
@@ -19536,7 +19536,7 @@
       <c r="A7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="150" t="s">
         <v>729</v>
       </c>
       <c r="C7" s="58">
@@ -19581,7 +19581,7 @@
       <c r="A8" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="150" t="s">
         <v>731</v>
       </c>
       <c r="C8" s="58">
@@ -19626,7 +19626,7 @@
       <c r="A9" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="150" t="s">
         <v>733</v>
       </c>
       <c r="C9" s="58">
@@ -19671,7 +19671,7 @@
       <c r="A10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="150" t="s">
         <v>735</v>
       </c>
       <c r="C10" s="58">
@@ -19716,7 +19716,7 @@
       <c r="A11" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="150" t="s">
         <v>265</v>
       </c>
       <c r="C11" s="58">
@@ -19761,7 +19761,7 @@
       <c r="A12" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="150" t="s">
         <v>744</v>
       </c>
       <c r="C12" s="58">
@@ -19822,7 +19822,7 @@
       <c r="A13" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="150" t="s">
         <v>181</v>
       </c>
       <c r="C13" s="58">
@@ -19849,16 +19849,16 @@
         <f t="shared" si="7"/>
         <v>0x01E3</v>
       </c>
-      <c r="I13" s="151" t="s">
+      <c r="I13" s="165" t="s">
         <v>183</v>
       </c>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="166"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="153" t="s">
+      <c r="M13" s="167" t="s">
         <v>182</v>
       </c>
-      <c r="N13" s="152"/>
+      <c r="N13" s="166"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="65"/>
@@ -19871,7 +19871,7 @@
       <c r="A14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="150" t="s">
         <v>267</v>
       </c>
       <c r="C14" s="58">
@@ -19918,7 +19918,7 @@
       <c r="A15" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="150" t="s">
         <v>746</v>
       </c>
       <c r="C15" s="58">
@@ -19957,27 +19957,27 @@
       <c r="L15" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="M15" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="149" t="s">
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="R15" s="150"/>
-      <c r="S15" s="149" t="s">
+      <c r="R15" s="164"/>
+      <c r="S15" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="T15" s="158"/>
+      <c r="T15" s="170"/>
       <c r="U15" s="27"/>
     </row>
     <row r="16" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="150" t="s">
         <v>748</v>
       </c>
       <c r="C16" s="58">
@@ -20022,10 +20022,10 @@
       <c r="N16" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="O16" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="150"/>
+      <c r="P16" s="164"/>
       <c r="Q16" s="65"/>
       <c r="R16" s="65"/>
       <c r="S16" s="65"/>
@@ -20038,7 +20038,7 @@
       <c r="A17" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="151" t="s">
         <v>321</v>
       </c>
       <c r="C17" s="59">
@@ -20083,12 +20083,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="M13:N13"/>
@@ -20096,6 +20090,12 @@
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20123,7 +20123,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="175" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="46" t="s">
@@ -20134,7 +20134,7 @@
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="171"/>
+      <c r="A2" s="176"/>
       <c r="B2" s="47" t="s">
         <v>270</v>
       </c>
@@ -20143,7 +20143,7 @@
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="171"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="47" t="s">
         <v>271</v>
       </c>
@@ -20152,7 +20152,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="171"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="47" t="s">
         <v>272</v>
       </c>
@@ -20161,7 +20161,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="171"/>
+      <c r="A5" s="176"/>
       <c r="B5" s="47" t="s">
         <v>273</v>
       </c>
@@ -20170,7 +20170,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="171"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="47" t="s">
         <v>274</v>
       </c>
@@ -20179,7 +20179,7 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="171"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="47" t="s">
         <v>275</v>
       </c>
@@ -20188,7 +20188,7 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="48" t="s">
         <v>276</v>
       </c>
@@ -20197,7 +20197,7 @@
       <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="171" t="s">
         <v>290</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -20208,7 +20208,7 @@
       <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="47" t="s">
         <v>278</v>
       </c>
@@ -20217,7 +20217,7 @@
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="47" t="s">
         <v>279</v>
       </c>
@@ -20226,7 +20226,7 @@
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="167"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="47" t="s">
         <v>291</v>
       </c>
@@ -20235,7 +20235,7 @@
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="167"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="47" t="s">
         <v>280</v>
       </c>
@@ -20244,7 +20244,7 @@
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="47" t="s">
         <v>281</v>
       </c>
@@ -20253,7 +20253,7 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="167"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="47" t="s">
         <v>282</v>
       </c>
@@ -20262,7 +20262,7 @@
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="47" t="s">
         <v>283</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="49" t="s">
         <v>284</v>
       </c>
@@ -20280,20 +20280,20 @@
       <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="174" t="s">
         <v>289</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="177" t="s">
         <v>295</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="179"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="51" t="s">
         <v>286</v>
       </c>
@@ -20311,7 +20311,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="168"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="52" t="s">
         <v>294</v>
       </c>
@@ -20346,7 +20346,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20359,18 +20359,18 @@
       <c r="A1" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="180" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="180" t="s">
         <v>314</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -20396,7 +20396,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="175"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="6" t="str">
         <f>LEFT(B1,2)</f>
         <v>04</v>
@@ -20427,7 +20427,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="175"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="6">
         <f>HEX2DEC(B3)</f>
         <v>4</v>
@@ -20458,7 +20458,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="181" t="s">
         <v>315</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -20482,7 +20482,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="177"/>
+      <c r="A6" s="182"/>
       <c r="B6" s="6" t="str">
         <f>DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC("88"),B4),C4),D4))</f>
         <v>BD</v>
@@ -20528,11 +20528,11 @@
   </sheetPr>
   <dimension ref="A1:CC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20548,98 +20548,98 @@
   <sheetData>
     <row r="1" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="98"/>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>643</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179" t="str">
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184" t="str">
         <f>B1&amp;" VS. "&amp;AH1</f>
         <v>Card1 VS. Card2</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="182" t="s">
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="186"/>
+      <c r="AH1" s="187" t="s">
         <v>644</v>
       </c>
-      <c r="AI1" s="182"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="182"/>
-      <c r="AL1" s="182"/>
-      <c r="AM1" s="182"/>
-      <c r="AN1" s="182"/>
-      <c r="AO1" s="182"/>
-      <c r="AP1" s="182"/>
-      <c r="AQ1" s="182"/>
-      <c r="AR1" s="182"/>
-      <c r="AS1" s="182"/>
-      <c r="AT1" s="182"/>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="179" t="str">
+      <c r="AI1" s="187"/>
+      <c r="AJ1" s="187"/>
+      <c r="AK1" s="187"/>
+      <c r="AL1" s="187"/>
+      <c r="AM1" s="187"/>
+      <c r="AN1" s="187"/>
+      <c r="AO1" s="187"/>
+      <c r="AP1" s="187"/>
+      <c r="AQ1" s="187"/>
+      <c r="AR1" s="187"/>
+      <c r="AS1" s="187"/>
+      <c r="AT1" s="187"/>
+      <c r="AU1" s="187"/>
+      <c r="AV1" s="187"/>
+      <c r="AW1" s="187"/>
+      <c r="AX1" s="184" t="str">
         <f>AH1&amp;" VS. "&amp;BN1</f>
         <v>Card2 VS. Card2data</v>
       </c>
-      <c r="AY1" s="180"/>
-      <c r="AZ1" s="180"/>
-      <c r="BA1" s="180"/>
-      <c r="BB1" s="180"/>
-      <c r="BC1" s="180"/>
-      <c r="BD1" s="180"/>
-      <c r="BE1" s="180"/>
-      <c r="BF1" s="180"/>
-      <c r="BG1" s="180"/>
-      <c r="BH1" s="180"/>
-      <c r="BI1" s="180"/>
-      <c r="BJ1" s="180"/>
-      <c r="BK1" s="180"/>
-      <c r="BL1" s="180"/>
-      <c r="BM1" s="181"/>
-      <c r="BN1" s="183" t="s">
+      <c r="AY1" s="185"/>
+      <c r="AZ1" s="185"/>
+      <c r="BA1" s="185"/>
+      <c r="BB1" s="185"/>
+      <c r="BC1" s="185"/>
+      <c r="BD1" s="185"/>
+      <c r="BE1" s="185"/>
+      <c r="BF1" s="185"/>
+      <c r="BG1" s="185"/>
+      <c r="BH1" s="185"/>
+      <c r="BI1" s="185"/>
+      <c r="BJ1" s="185"/>
+      <c r="BK1" s="185"/>
+      <c r="BL1" s="185"/>
+      <c r="BM1" s="186"/>
+      <c r="BN1" s="188" t="s">
         <v>645</v>
       </c>
-      <c r="BO1" s="183"/>
-      <c r="BP1" s="183"/>
-      <c r="BQ1" s="183"/>
-      <c r="BR1" s="183"/>
-      <c r="BS1" s="183"/>
-      <c r="BT1" s="183"/>
-      <c r="BU1" s="183"/>
-      <c r="BV1" s="183"/>
-      <c r="BW1" s="183"/>
-      <c r="BX1" s="183"/>
-      <c r="BY1" s="183"/>
-      <c r="BZ1" s="183"/>
-      <c r="CA1" s="183"/>
-      <c r="CB1" s="183"/>
-      <c r="CC1" s="184"/>
+      <c r="BO1" s="188"/>
+      <c r="BP1" s="188"/>
+      <c r="BQ1" s="188"/>
+      <c r="BR1" s="188"/>
+      <c r="BS1" s="188"/>
+      <c r="BT1" s="188"/>
+      <c r="BU1" s="188"/>
+      <c r="BV1" s="188"/>
+      <c r="BW1" s="188"/>
+      <c r="BX1" s="188"/>
+      <c r="BY1" s="188"/>
+      <c r="BZ1" s="188"/>
+      <c r="CA1" s="188"/>
+      <c r="CB1" s="188"/>
+      <c r="CC1" s="189"/>
     </row>
     <row r="2" spans="1:81" s="69" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100"/>
@@ -30568,7 +30568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -30637,24 +30637,24 @@
         <v>647</v>
       </c>
       <c r="T1" s="143"/>
-      <c r="U1" s="185" t="s">
+      <c r="U1" s="190" t="s">
         <v>646</v>
       </c>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="186"/>
-      <c r="AH1" s="186"/>
-      <c r="AI1" s="186"/>
-      <c r="AJ1" s="187"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="192"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="s">
